--- a/data/distributions.xlsx
+++ b/data/distributions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1540" yWindow="4980" windowWidth="21340" windowHeight="11980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all branch segments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t>repository</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>docker</t>
+  </si>
+  <si>
+    <t>faker</t>
   </si>
 </sst>
 </file>
@@ -307,9 +310,179 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="364">
+  <cellStyleXfs count="534">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -678,7 +851,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="364">
+  <cellStyles count="534">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -860,6 +1033,91 @@
     <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1041,6 +1299,91 @@
     <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="526" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1371,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL6"/>
+  <dimension ref="A1:BL7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2609,6 +2952,200 @@
         <v>213.75988326999999</v>
       </c>
     </row>
+    <row r="7" spans="1:64">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>2.3971830985999998</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2.8616878898999998</v>
+      </c>
+      <c r="E7">
+        <v>3.7267605634000001</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>7.7831659161999998</v>
+      </c>
+      <c r="H7">
+        <v>2.1631434626999999</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>6.6928603545999996</v>
+      </c>
+      <c r="K7">
+        <v>3.9915492958000001</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>8.3755385437999994</v>
+      </c>
+      <c r="N7">
+        <v>2.2088261236000002</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>6.7117858732000002</v>
+      </c>
+      <c r="Q7">
+        <v>276.85352112999999</v>
+      </c>
+      <c r="R7">
+        <v>21</v>
+      </c>
+      <c r="S7">
+        <v>1246.4288313</v>
+      </c>
+      <c r="T7">
+        <v>73.802816901</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>811.80551405000006</v>
+      </c>
+      <c r="W7">
+        <v>350.65633802999997</v>
+      </c>
+      <c r="X7">
+        <v>31</v>
+      </c>
+      <c r="Y7">
+        <v>1650.1030443</v>
+      </c>
+      <c r="Z7">
+        <v>213.26967146999999</v>
+      </c>
+      <c r="AA7">
+        <v>15.052631579</v>
+      </c>
+      <c r="AB7">
+        <v>1438.1492714000001</v>
+      </c>
+      <c r="AC7">
+        <v>332.57464788999999</v>
+      </c>
+      <c r="AD7">
+        <v>24</v>
+      </c>
+      <c r="AE7">
+        <v>1368.7708276000001</v>
+      </c>
+      <c r="AF7">
+        <v>129.52394365999999</v>
+      </c>
+      <c r="AG7">
+        <v>3</v>
+      </c>
+      <c r="AH7">
+        <v>923.19778402999998</v>
+      </c>
+      <c r="AI7">
+        <v>462.09859154999998</v>
+      </c>
+      <c r="AJ7">
+        <v>38</v>
+      </c>
+      <c r="AK7">
+        <v>1936.3030398000001</v>
+      </c>
+      <c r="AL7">
+        <v>243.15153477999999</v>
+      </c>
+      <c r="AM7">
+        <v>19</v>
+      </c>
+      <c r="AN7">
+        <v>1495.6615693000001</v>
+      </c>
+      <c r="AO7">
+        <v>8.4563380281999994</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>27.396238412999999</v>
+      </c>
+      <c r="AR7">
+        <v>5.5189169927000004</v>
+      </c>
+      <c r="AS7">
+        <v>1.2857142856999999</v>
+      </c>
+      <c r="AT7">
+        <v>25.32042994</v>
+      </c>
+      <c r="AU7">
+        <v>13.856338028</v>
+      </c>
+      <c r="AV7">
+        <v>4</v>
+      </c>
+      <c r="AW7">
+        <v>35.675628787000001</v>
+      </c>
+      <c r="AX7">
+        <v>6.4982508773000003</v>
+      </c>
+      <c r="AY7">
+        <v>2.25</v>
+      </c>
+      <c r="AZ7">
+        <v>25.313301603999999</v>
+      </c>
+      <c r="BA7">
+        <v>1.0281690140999999</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>0.1656890241</v>
+      </c>
+      <c r="BD7">
+        <v>1.0084507041999999</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BF7">
+        <v>9.1667661299999995E-2</v>
+      </c>
+      <c r="BG7">
+        <v>72.174296557000005</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>325.6367856</v>
+      </c>
+      <c r="BJ7">
+        <v>140.04876213</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>560.25200443000006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2622,10 +3159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR6"/>
+  <dimension ref="A1:BR7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3781,9 +4318,427 @@
       <c r="B6">
         <v>5317</v>
       </c>
+      <c r="C6">
+        <v>9225</v>
+      </c>
       <c r="D6">
         <f>B6-4034</f>
         <v>1283</v>
+      </c>
+      <c r="E6">
+        <v>5191</v>
+      </c>
+      <c r="F6" s="1">
+        <f>D6/B6</f>
+        <v>0.24130148580026331</v>
+      </c>
+      <c r="G6" s="1">
+        <f>E6/C6</f>
+        <v>0.56271002710027096</v>
+      </c>
+      <c r="H6">
+        <v>4.0459860000000001</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>6.4188372999999999</v>
+      </c>
+      <c r="K6">
+        <v>7.4528448999999997</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>16.843686000000002</v>
+      </c>
+      <c r="N6">
+        <v>2.2357828</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>5.8824123999999998</v>
+      </c>
+      <c r="Q6">
+        <v>7.6017146999999996</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>16.975376000000001</v>
+      </c>
+      <c r="T6">
+        <v>2.2658214000000001</v>
+      </c>
+      <c r="U6">
+        <v>1.0793699999999999</v>
+      </c>
+      <c r="V6">
+        <v>5.8919566000000003</v>
+      </c>
+      <c r="W6">
+        <v>286.06391000000002</v>
+      </c>
+      <c r="X6">
+        <v>52</v>
+      </c>
+      <c r="Y6">
+        <v>2437.5228000000002</v>
+      </c>
+      <c r="Z6">
+        <v>137.31177</v>
+      </c>
+      <c r="AA6">
+        <v>14</v>
+      </c>
+      <c r="AB6">
+        <v>1344.1079</v>
+      </c>
+      <c r="AC6">
+        <v>423.37567999999999</v>
+      </c>
+      <c r="AD6">
+        <v>74</v>
+      </c>
+      <c r="AE6">
+        <v>2819.3766999999998</v>
+      </c>
+      <c r="AF6">
+        <v>130.04085000000001</v>
+      </c>
+      <c r="AG6">
+        <v>26.5</v>
+      </c>
+      <c r="AH6">
+        <v>1243.2153000000001</v>
+      </c>
+      <c r="AI6">
+        <v>308.45985999999999</v>
+      </c>
+      <c r="AJ6">
+        <v>56</v>
+      </c>
+      <c r="AK6">
+        <v>2447.6952999999999</v>
+      </c>
+      <c r="AL6">
+        <v>159.70771999999999</v>
+      </c>
+      <c r="AM6">
+        <v>19</v>
+      </c>
+      <c r="AN6">
+        <v>1350.6339</v>
+      </c>
+      <c r="AO6">
+        <v>468.16757999999999</v>
+      </c>
+      <c r="AP6">
+        <v>82</v>
+      </c>
+      <c r="AQ6">
+        <v>2843.1401999999998</v>
+      </c>
+      <c r="AR6">
+        <v>136.82284999999999</v>
+      </c>
+      <c r="AS6">
+        <v>30.5</v>
+      </c>
+      <c r="AT6">
+        <v>1243.7831000000001</v>
+      </c>
+      <c r="AU6">
+        <v>28.440373999999998</v>
+      </c>
+      <c r="AV6">
+        <v>10</v>
+      </c>
+      <c r="AW6">
+        <v>79.173432000000005</v>
+      </c>
+      <c r="AX6">
+        <v>8.3636347000000004</v>
+      </c>
+      <c r="AY6">
+        <v>3.5</v>
+      </c>
+      <c r="AZ6">
+        <v>32.841797999999997</v>
+      </c>
+      <c r="BA6">
+        <v>38.102884000000003</v>
+      </c>
+      <c r="BB6">
+        <v>13</v>
+      </c>
+      <c r="BC6">
+        <v>93.837108000000001</v>
+      </c>
+      <c r="BD6">
+        <v>10.004082</v>
+      </c>
+      <c r="BE6">
+        <v>4.5</v>
+      </c>
+      <c r="BF6">
+        <v>34.174511000000003</v>
+      </c>
+      <c r="BG6">
+        <v>1.3546376</v>
+      </c>
+      <c r="BH6">
+        <v>1</v>
+      </c>
+      <c r="BI6">
+        <v>2.0385596000000001</v>
+      </c>
+      <c r="BJ6">
+        <v>1.0623539</v>
+      </c>
+      <c r="BK6">
+        <v>1</v>
+      </c>
+      <c r="BL6">
+        <v>0.25446360000000001</v>
+      </c>
+      <c r="BM6">
+        <v>22.329066999999998</v>
+      </c>
+      <c r="BN6">
+        <v>0.74167000000000005</v>
+      </c>
+      <c r="BO6">
+        <v>72.947642999999999</v>
+      </c>
+      <c r="BP6">
+        <v>148.30341000000001</v>
+      </c>
+      <c r="BQ6">
+        <v>13.6492</v>
+      </c>
+      <c r="BR6">
+        <v>415.66107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:70">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>365</v>
+      </c>
+      <c r="C7">
+        <v>851</v>
+      </c>
+      <c r="D7">
+        <f>B7-196</f>
+        <v>169</v>
+      </c>
+      <c r="E7">
+        <v>655</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ref="F7:F18" si="0">D7/B7</f>
+        <v>0.46301369863013697</v>
+      </c>
+      <c r="G7" s="1">
+        <f>E7/C7</f>
+        <v>0.76968272620446532</v>
+      </c>
+      <c r="H7">
+        <v>4.1194968999999997</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3.5974054999999998</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>6.1170026999999996</v>
+      </c>
+      <c r="N7">
+        <v>1.5089052000000001</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>2.0566537999999999</v>
+      </c>
+      <c r="Q7">
+        <v>5.5911949999999999</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>7.5600664999999996</v>
+      </c>
+      <c r="T7">
+        <v>1.6109011</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>2.2196267000000001</v>
+      </c>
+      <c r="W7">
+        <v>400.06288999999998</v>
+      </c>
+      <c r="X7">
+        <v>93</v>
+      </c>
+      <c r="Y7">
+        <v>1281.9567</v>
+      </c>
+      <c r="Z7">
+        <v>42.918239</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>157.84125</v>
+      </c>
+      <c r="AC7">
+        <v>442.98113000000001</v>
+      </c>
+      <c r="AD7">
+        <v>110</v>
+      </c>
+      <c r="AE7">
+        <v>1298.4916000000001</v>
+      </c>
+      <c r="AF7">
+        <v>136.23732000000001</v>
+      </c>
+      <c r="AG7">
+        <v>31.2</v>
+      </c>
+      <c r="AH7">
+        <v>473.54007000000001</v>
+      </c>
+      <c r="AI7">
+        <v>524.47170000000006</v>
+      </c>
+      <c r="AJ7">
+        <v>123</v>
+      </c>
+      <c r="AK7">
+        <v>1523.4204999999999</v>
+      </c>
+      <c r="AL7">
+        <v>167.32704000000001</v>
+      </c>
+      <c r="AM7">
+        <v>14</v>
+      </c>
+      <c r="AN7">
+        <v>676.06308000000001</v>
+      </c>
+      <c r="AO7">
+        <v>691.79873999999995</v>
+      </c>
+      <c r="AP7">
+        <v>152</v>
+      </c>
+      <c r="AQ7">
+        <v>1976.1502</v>
+      </c>
+      <c r="AR7">
+        <v>202.95468</v>
+      </c>
+      <c r="AS7">
+        <v>42</v>
+      </c>
+      <c r="AT7">
+        <v>781.12228000000005</v>
+      </c>
+      <c r="AU7">
+        <v>9.7421384</v>
+      </c>
+      <c r="AV7">
+        <v>4</v>
+      </c>
+      <c r="AW7">
+        <v>17.633474</v>
+      </c>
+      <c r="AX7">
+        <v>3.1837455000000001</v>
+      </c>
+      <c r="AY7">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="AZ7">
+        <v>7.6704445000000003</v>
+      </c>
+      <c r="BA7">
+        <v>21.798742000000001</v>
+      </c>
+      <c r="BB7">
+        <v>11</v>
+      </c>
+      <c r="BC7">
+        <v>36.999448999999998</v>
+      </c>
+      <c r="BD7">
+        <v>5.3703086000000004</v>
+      </c>
+      <c r="BE7">
+        <v>3.3</v>
+      </c>
+      <c r="BF7">
+        <v>8.1023013000000006</v>
+      </c>
+      <c r="BG7">
+        <v>1.0628930999999999</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>0.24353759999999999</v>
+      </c>
+      <c r="BJ7">
+        <v>1.0188679</v>
+      </c>
+      <c r="BK7">
+        <v>1</v>
+      </c>
+      <c r="BL7">
+        <v>0.13648840000000001</v>
+      </c>
+      <c r="BM7">
+        <v>161.14386999999999</v>
+      </c>
+      <c r="BN7">
+        <v>3.3822199999999998</v>
+      </c>
+      <c r="BO7">
+        <v>472.39191</v>
+      </c>
+      <c r="BP7">
+        <v>312.68749000000003</v>
+      </c>
+      <c r="BQ7">
+        <v>16.827500000000001</v>
+      </c>
+      <c r="BR7">
+        <v>805.56295</v>
       </c>
     </row>
   </sheetData>

--- a/data/distributions.xlsx
+++ b/data/distributions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="4980" windowWidth="21340" windowHeight="11980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="160" yWindow="5180" windowWidth="21340" windowHeight="11880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="all branch segments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>repository</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>faker</t>
+  </si>
+  <si>
+    <t>git</t>
   </si>
 </sst>
 </file>
@@ -310,9 +313,93 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="534">
+  <cellStyleXfs count="618">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -851,7 +938,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="534">
+  <cellStyles count="618">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1118,6 +1205,48 @@
     <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="563" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="565" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="567" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="617" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1384,6 +1513,48 @@
     <cellStyle name="Hyperlink" xfId="528" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="530" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="562" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="564" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="566" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="568" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="616" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1714,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL7"/>
+  <dimension ref="A1:BL8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3146,6 +3317,200 @@
         <v>560.25200443000006</v>
       </c>
     </row>
+    <row r="8" spans="1:64">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>3.3768472906000002</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>11.374127195</v>
+      </c>
+      <c r="E8">
+        <v>4.5110301992000004</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>9.7064627256999998</v>
+      </c>
+      <c r="H8">
+        <v>1.7696330951000001</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>4.0132459881000004</v>
+      </c>
+      <c r="K8">
+        <v>4.5238809166999996</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>9.7520353179000008</v>
+      </c>
+      <c r="N8">
+        <v>1.7713881890000001</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>4.0132822012</v>
+      </c>
+      <c r="Q8">
+        <v>134.70625401999999</v>
+      </c>
+      <c r="R8">
+        <v>26</v>
+      </c>
+      <c r="S8">
+        <v>705.3084791</v>
+      </c>
+      <c r="T8">
+        <v>51.795459413000003</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>250.72357905000001</v>
+      </c>
+      <c r="W8">
+        <v>186.50171343</v>
+      </c>
+      <c r="X8">
+        <v>36</v>
+      </c>
+      <c r="Y8">
+        <v>848.93752258999996</v>
+      </c>
+      <c r="Z8">
+        <v>59.941029284000003</v>
+      </c>
+      <c r="AA8">
+        <v>19</v>
+      </c>
+      <c r="AB8">
+        <v>246.77768237000001</v>
+      </c>
+      <c r="AC8">
+        <v>154.80316984000001</v>
+      </c>
+      <c r="AD8">
+        <v>26</v>
+      </c>
+      <c r="AE8">
+        <v>1333.1241574000001</v>
+      </c>
+      <c r="AF8">
+        <v>71.892375240999996</v>
+      </c>
+      <c r="AG8">
+        <v>7</v>
+      </c>
+      <c r="AH8">
+        <v>1162.9505340000001</v>
+      </c>
+      <c r="AI8">
+        <v>226.69554507999999</v>
+      </c>
+      <c r="AJ8">
+        <v>37</v>
+      </c>
+      <c r="AK8">
+        <v>2420.6193664000002</v>
+      </c>
+      <c r="AL8">
+        <v>61.30184843</v>
+      </c>
+      <c r="AM8">
+        <v>19.875</v>
+      </c>
+      <c r="AN8">
+        <v>249.0308378</v>
+      </c>
+      <c r="AO8">
+        <v>28.223495395</v>
+      </c>
+      <c r="AP8">
+        <v>6</v>
+      </c>
+      <c r="AQ8">
+        <v>148.22690814000001</v>
+      </c>
+      <c r="AR8">
+        <v>11.953771774</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AT8">
+        <v>80.120498069000007</v>
+      </c>
+      <c r="AU8">
+        <v>35.544549154000002</v>
+      </c>
+      <c r="AV8">
+        <v>6</v>
+      </c>
+      <c r="AW8">
+        <v>270.44755229999998</v>
+      </c>
+      <c r="AX8">
+        <v>12.460389075</v>
+      </c>
+      <c r="AY8">
+        <v>3.5</v>
+      </c>
+      <c r="AZ8">
+        <v>80.514722559999996</v>
+      </c>
+      <c r="BA8">
+        <v>1.5515099592999999</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>1.3602365662</v>
+      </c>
+      <c r="BD8">
+        <v>1.0126365389</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
+      <c r="BF8">
+        <v>0.13434073730000001</v>
+      </c>
+      <c r="BG8">
+        <v>46.619348123999998</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>630.91710981999995</v>
+      </c>
+      <c r="BJ8">
+        <v>126.32424484000001</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>1131.3163784000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3159,10 +3524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR7"/>
+  <dimension ref="A1:BR8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4741,6 +5106,221 @@
         <v>805.56295</v>
       </c>
     </row>
+    <row r="8" spans="1:70">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>9338</v>
+      </c>
+      <c r="C8">
+        <v>31533</v>
+      </c>
+      <c r="D8">
+        <f>B8-4693</f>
+        <v>4645</v>
+      </c>
+      <c r="E8">
+        <v>26840</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49742985650032129</v>
+      </c>
+      <c r="G8" s="1">
+        <f>E8/C8</f>
+        <v>0.85117178828528839</v>
+      </c>
+      <c r="H8">
+        <v>5.7782562000000004</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>15.767991</v>
+      </c>
+      <c r="K8">
+        <v>6.9844995000000001</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>12.232538</v>
+      </c>
+      <c r="N8">
+        <v>1.4733765000000001</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>2.1433053000000002</v>
+      </c>
+      <c r="Q8">
+        <v>7.0103337000000003</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>12.299989</v>
+      </c>
+      <c r="T8">
+        <v>1.4769048</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>2.1439278000000002</v>
+      </c>
+      <c r="W8">
+        <v>227.00388000000001</v>
+      </c>
+      <c r="X8">
+        <v>62</v>
+      </c>
+      <c r="Y8">
+        <v>972.96515999999997</v>
+      </c>
+      <c r="Z8">
+        <v>84.373305000000002</v>
+      </c>
+      <c r="AA8">
+        <v>18</v>
+      </c>
+      <c r="AB8">
+        <v>332.86081000000001</v>
+      </c>
+      <c r="AC8">
+        <v>311.37718000000001</v>
+      </c>
+      <c r="AD8">
+        <v>89</v>
+      </c>
+      <c r="AE8">
+        <v>1154.7445</v>
+      </c>
+      <c r="AF8">
+        <v>56.947972</v>
+      </c>
+      <c r="AG8">
+        <v>23.333300000000001</v>
+      </c>
+      <c r="AH8">
+        <v>194.67671999999999</v>
+      </c>
+      <c r="AI8">
+        <v>267.40537999999998</v>
+      </c>
+      <c r="AJ8">
+        <v>64</v>
+      </c>
+      <c r="AK8">
+        <v>1873.8741</v>
+      </c>
+      <c r="AL8">
+        <v>124.77481</v>
+      </c>
+      <c r="AM8">
+        <v>21</v>
+      </c>
+      <c r="AN8">
+        <v>1643.2081000000001</v>
+      </c>
+      <c r="AO8">
+        <v>392.18018999999998</v>
+      </c>
+      <c r="AP8">
+        <v>93</v>
+      </c>
+      <c r="AQ8">
+        <v>3411.9780000000001</v>
+      </c>
+      <c r="AR8">
+        <v>59.683672999999999</v>
+      </c>
+      <c r="AS8">
+        <v>24.8</v>
+      </c>
+      <c r="AT8">
+        <v>200.39385999999999</v>
+      </c>
+      <c r="AU8">
+        <v>41.981484999999999</v>
+      </c>
+      <c r="AV8">
+        <v>13</v>
+      </c>
+      <c r="AW8">
+        <v>183.5401</v>
+      </c>
+      <c r="AX8">
+        <v>9.2739118999999999</v>
+      </c>
+      <c r="AY8">
+        <v>3.5</v>
+      </c>
+      <c r="AZ8">
+        <v>52.739424999999997</v>
+      </c>
+      <c r="BA8">
+        <v>56.699247</v>
+      </c>
+      <c r="BB8">
+        <v>15</v>
+      </c>
+      <c r="BC8">
+        <v>368.85532999999998</v>
+      </c>
+      <c r="BD8">
+        <v>10.292382</v>
+      </c>
+      <c r="BE8">
+        <v>4</v>
+      </c>
+      <c r="BF8">
+        <v>53.978757000000002</v>
+      </c>
+      <c r="BG8">
+        <v>2.1087191000000001</v>
+      </c>
+      <c r="BH8">
+        <v>2</v>
+      </c>
+      <c r="BI8">
+        <v>1.7612745999999999</v>
+      </c>
+      <c r="BJ8">
+        <v>1.0254037</v>
+      </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>0.18963360000000001</v>
+      </c>
+      <c r="BM8">
+        <v>93.720445999999995</v>
+      </c>
+      <c r="BN8">
+        <v>1.24722</v>
+      </c>
+      <c r="BO8">
+        <v>892.13088000000005</v>
+      </c>
+      <c r="BP8">
+        <v>253.95389</v>
+      </c>
+      <c r="BQ8">
+        <v>16.366099999999999</v>
+      </c>
+      <c r="BR8">
+        <v>1594.0009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/distributions.xlsx
+++ b/data/distributions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="5180" windowWidth="21340" windowHeight="11880" tabRatio="500"/>
+    <workbookView xWindow="7320" yWindow="4740" windowWidth="21340" windowHeight="11880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all branch segments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>repository</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>git</t>
+  </si>
+  <si>
+    <t>gitlabhq</t>
   </si>
 </sst>
 </file>
@@ -313,9 +316,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="618">
+  <cellStyleXfs count="710">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -938,7 +1033,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="618">
+  <cellStyles count="710">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1247,6 +1342,52 @@
     <cellStyle name="Followed Hyperlink" xfId="613" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="615" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="695" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="709" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1555,6 +1696,52 @@
     <cellStyle name="Hyperlink" xfId="612" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="614" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="624" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="626" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="632" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="634" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="636" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="638" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="640" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="642" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="644" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="646" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="648" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="650" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="652" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="654" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="656" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="658" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="660" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="662" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="664" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="666" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="668" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="670" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="672" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="674" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="676" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="678" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="680" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="682" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="684" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="686" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="688" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="690" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="692" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="694" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="696" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="698" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="700" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="702" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="704" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="706" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="708" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1885,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL8"/>
+  <dimension ref="A1:BL9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3511,6 +3698,200 @@
         <v>1131.3163784000001</v>
       </c>
     </row>
+    <row r="9" spans="1:64">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9">
+        <v>2.0412639404999999</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2.7487880141000001</v>
+      </c>
+      <c r="E9">
+        <v>6.2832713755</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>26.634388443999999</v>
+      </c>
+      <c r="H9">
+        <v>2.967127922</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>9.7612402215999996</v>
+      </c>
+      <c r="K9">
+        <v>6.3434944238000002</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>26.780841359</v>
+      </c>
+      <c r="N9">
+        <v>2.9755332358</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>9.7650727133000004</v>
+      </c>
+      <c r="Q9">
+        <v>119.84628253</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9">
+        <v>2818.3161455999998</v>
+      </c>
+      <c r="T9">
+        <v>94.158178438999997</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>2803.6495721000001</v>
+      </c>
+      <c r="W9">
+        <v>214.00446097</v>
+      </c>
+      <c r="X9">
+        <v>13</v>
+      </c>
+      <c r="Y9">
+        <v>4318.0012122999997</v>
+      </c>
+      <c r="Z9">
+        <v>77.947859895999997</v>
+      </c>
+      <c r="AA9">
+        <v>10</v>
+      </c>
+      <c r="AB9">
+        <v>2258.2000170000001</v>
+      </c>
+      <c r="AC9">
+        <v>133.96914498000001</v>
+      </c>
+      <c r="AD9">
+        <v>8</v>
+      </c>
+      <c r="AE9">
+        <v>2921.9559586999999</v>
+      </c>
+      <c r="AF9">
+        <v>108.28104089</v>
+      </c>
+      <c r="AG9">
+        <v>4</v>
+      </c>
+      <c r="AH9">
+        <v>2903.5267401999999</v>
+      </c>
+      <c r="AI9">
+        <v>242.25018587</v>
+      </c>
+      <c r="AJ9">
+        <v>14</v>
+      </c>
+      <c r="AK9">
+        <v>4579.8481570000004</v>
+      </c>
+      <c r="AL9">
+        <v>86.151218768999996</v>
+      </c>
+      <c r="AM9">
+        <v>10</v>
+      </c>
+      <c r="AN9">
+        <v>2313.5980109000002</v>
+      </c>
+      <c r="AO9">
+        <v>12.09535316</v>
+      </c>
+      <c r="AP9">
+        <v>3</v>
+      </c>
+      <c r="AQ9">
+        <v>45.567329295999997</v>
+      </c>
+      <c r="AR9">
+        <v>5.7181297797999999</v>
+      </c>
+      <c r="AS9">
+        <v>2</v>
+      </c>
+      <c r="AT9">
+        <v>22.544356558</v>
+      </c>
+      <c r="AU9">
+        <v>13.909665428</v>
+      </c>
+      <c r="AV9">
+        <v>3</v>
+      </c>
+      <c r="AW9">
+        <v>51.091688951999998</v>
+      </c>
+      <c r="AX9">
+        <v>6.0126516023000001</v>
+      </c>
+      <c r="AY9">
+        <v>2.5</v>
+      </c>
+      <c r="AZ9">
+        <v>22.645792496999999</v>
+      </c>
+      <c r="BA9">
+        <v>1.0416356876999999</v>
+      </c>
+      <c r="BB9">
+        <v>1</v>
+      </c>
+      <c r="BC9">
+        <v>0.23721191699999999</v>
+      </c>
+      <c r="BD9">
+        <v>1.0271375465000001</v>
+      </c>
+      <c r="BE9">
+        <v>1</v>
+      </c>
+      <c r="BF9">
+        <v>0.18090573709999999</v>
+      </c>
+      <c r="BG9">
+        <v>8.6295730587000001</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>82.101421805000001</v>
+      </c>
+      <c r="BJ9">
+        <v>22.191566760000001</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>204.53741314000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3524,10 +3905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR8"/>
+  <dimension ref="A1:BR9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5321,6 +5702,221 @@
         <v>1594.0009</v>
       </c>
     </row>
+    <row r="9" spans="1:70">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9">
+        <v>5380</v>
+      </c>
+      <c r="C9">
+        <v>10982</v>
+      </c>
+      <c r="D9">
+        <f>B9-3569</f>
+        <v>1811</v>
+      </c>
+      <c r="E9">
+        <v>7413</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33661710037174719</v>
+      </c>
+      <c r="G9" s="1">
+        <f>E9/C9</f>
+        <v>0.67501365871425967</v>
+      </c>
+      <c r="H9">
+        <v>4.0933185999999999</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>4.0129093999999998</v>
+      </c>
+      <c r="K9">
+        <v>13.049696000000001</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>43.405256999999999</v>
+      </c>
+      <c r="N9">
+        <v>3.1983149000000002</v>
+      </c>
+      <c r="O9">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="P9">
+        <v>11.312279</v>
+      </c>
+      <c r="Q9">
+        <v>13.228603</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>43.644250999999997</v>
+      </c>
+      <c r="T9">
+        <v>3.2232848000000001</v>
+      </c>
+      <c r="U9">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="V9">
+        <v>11.321576</v>
+      </c>
+      <c r="W9">
+        <v>310.28602999999998</v>
+      </c>
+      <c r="X9">
+        <v>42</v>
+      </c>
+      <c r="Y9">
+        <v>4844.6867000000002</v>
+      </c>
+      <c r="Z9">
+        <v>170.29706999999999</v>
+      </c>
+      <c r="AA9">
+        <v>15</v>
+      </c>
+      <c r="AB9">
+        <v>2965.0011</v>
+      </c>
+      <c r="AC9">
+        <v>480.5831</v>
+      </c>
+      <c r="AD9">
+        <v>64</v>
+      </c>
+      <c r="AE9">
+        <v>6376.4898000000003</v>
+      </c>
+      <c r="AF9">
+        <v>76.395077999999998</v>
+      </c>
+      <c r="AG9">
+        <v>20.333300000000001</v>
+      </c>
+      <c r="AH9">
+        <v>715.17354999999998</v>
+      </c>
+      <c r="AI9">
+        <v>352.24130000000002</v>
+      </c>
+      <c r="AJ9">
+        <v>44</v>
+      </c>
+      <c r="AK9">
+        <v>5022.1342000000004</v>
+      </c>
+      <c r="AL9">
+        <v>212.25235000000001</v>
+      </c>
+      <c r="AM9">
+        <v>19</v>
+      </c>
+      <c r="AN9">
+        <v>3236.9213</v>
+      </c>
+      <c r="AO9">
+        <v>564.49365</v>
+      </c>
+      <c r="AP9">
+        <v>71</v>
+      </c>
+      <c r="AQ9">
+        <v>6894.5023000000001</v>
+      </c>
+      <c r="AR9">
+        <v>100.76508</v>
+      </c>
+      <c r="AS9">
+        <v>22</v>
+      </c>
+      <c r="AT9">
+        <v>1124.1992</v>
+      </c>
+      <c r="AU9">
+        <v>24.886803</v>
+      </c>
+      <c r="AV9">
+        <v>11</v>
+      </c>
+      <c r="AW9">
+        <v>68.838284000000002</v>
+      </c>
+      <c r="AX9">
+        <v>5.9417660000000003</v>
+      </c>
+      <c r="AY9">
+        <v>3.2727300000000001</v>
+      </c>
+      <c r="AZ9">
+        <v>18.033339000000002</v>
+      </c>
+      <c r="BA9">
+        <v>30.276643</v>
+      </c>
+      <c r="BB9">
+        <v>13</v>
+      </c>
+      <c r="BC9">
+        <v>78.538875000000004</v>
+      </c>
+      <c r="BD9">
+        <v>6.8167121000000002</v>
+      </c>
+      <c r="BE9">
+        <v>4</v>
+      </c>
+      <c r="BF9">
+        <v>18.382714</v>
+      </c>
+      <c r="BG9">
+        <v>1.1236885999999999</v>
+      </c>
+      <c r="BH9">
+        <v>1</v>
+      </c>
+      <c r="BI9">
+        <v>0.39631850000000002</v>
+      </c>
+      <c r="BJ9">
+        <v>1.0806184000000001</v>
+      </c>
+      <c r="BK9">
+        <v>1</v>
+      </c>
+      <c r="BL9">
+        <v>0.30486819999999998</v>
+      </c>
+      <c r="BM9">
+        <v>25.63617</v>
+      </c>
+      <c r="BN9">
+        <v>1.4313899999999999</v>
+      </c>
+      <c r="BO9">
+        <v>139.98491000000001</v>
+      </c>
+      <c r="BP9">
+        <v>65.925251000000003</v>
+      </c>
+      <c r="BQ9">
+        <v>2.3675000000000002</v>
+      </c>
+      <c r="BR9">
+        <v>348.48689999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/distributions.xlsx
+++ b/data/distributions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>repository</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>gitlabhq</t>
+  </si>
+  <si>
+    <t>godot</t>
   </si>
 </sst>
 </file>
@@ -316,9 +319,97 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="710">
+  <cellStyleXfs count="798">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1033,7 +1124,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="710">
+  <cellStyles count="798">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1388,6 +1479,50 @@
     <cellStyle name="Followed Hyperlink" xfId="705" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="707" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="771" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="773" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="775" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="777" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="779" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="781" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="787" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="789" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="791" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="793" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="795" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="797" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1742,6 +1877,50 @@
     <cellStyle name="Hyperlink" xfId="704" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="706" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="708" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="710" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="712" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="714" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="720" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="722" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="724" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="726" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="728" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="732" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="734" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="758" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="762" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="764" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="766" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="768" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="770" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="772" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="774" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="776" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="778" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="780" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="786" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="788" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="790" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="792" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="794" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="796" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2072,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL9"/>
+  <dimension ref="A1:BL10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3892,6 +4071,200 @@
         <v>204.53741314000001</v>
       </c>
     </row>
+    <row r="10" spans="1:64">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>1.5248756218999999</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1.2596275068</v>
+      </c>
+      <c r="E10">
+        <v>26.654228856</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>184.99715531999999</v>
+      </c>
+      <c r="H10">
+        <v>14.650171759999999</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>82.991788528000001</v>
+      </c>
+      <c r="K10">
+        <v>26.661691542</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>184.99639404999999</v>
+      </c>
+      <c r="N10">
+        <v>14.653156835000001</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>82.991389424999994</v>
+      </c>
+      <c r="Q10">
+        <v>5944.0547263999997</v>
+      </c>
+      <c r="R10">
+        <v>14</v>
+      </c>
+      <c r="S10">
+        <v>69590.731713000001</v>
+      </c>
+      <c r="T10">
+        <v>1479.9353234</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>12219.597841999999</v>
+      </c>
+      <c r="W10">
+        <v>7423.9900497999997</v>
+      </c>
+      <c r="X10">
+        <v>22</v>
+      </c>
+      <c r="Y10">
+        <v>71764.104538</v>
+      </c>
+      <c r="Z10">
+        <v>4231.8666855000001</v>
+      </c>
+      <c r="AA10">
+        <v>16.7</v>
+      </c>
+      <c r="AB10">
+        <v>32838.154939</v>
+      </c>
+      <c r="AC10">
+        <v>5946.4651740999998</v>
+      </c>
+      <c r="AD10">
+        <v>14</v>
+      </c>
+      <c r="AE10">
+        <v>69590.661124999999</v>
+      </c>
+      <c r="AF10">
+        <v>1482.3457711000001</v>
+      </c>
+      <c r="AG10">
+        <v>4</v>
+      </c>
+      <c r="AH10">
+        <v>12219.431757</v>
+      </c>
+      <c r="AI10">
+        <v>7428.8109452999997</v>
+      </c>
+      <c r="AJ10">
+        <v>22</v>
+      </c>
+      <c r="AK10">
+        <v>71763.911078000005</v>
+      </c>
+      <c r="AL10">
+        <v>4233.1761532999999</v>
+      </c>
+      <c r="AM10">
+        <v>18.125</v>
+      </c>
+      <c r="AN10">
+        <v>32838.041462000001</v>
+      </c>
+      <c r="AO10">
+        <v>166.79104477999999</v>
+      </c>
+      <c r="AP10">
+        <v>4</v>
+      </c>
+      <c r="AQ10">
+        <v>1350.506079</v>
+      </c>
+      <c r="AR10">
+        <v>147.37474101000001</v>
+      </c>
+      <c r="AS10">
+        <v>3.6</v>
+      </c>
+      <c r="AT10">
+        <v>1344.4942458</v>
+      </c>
+      <c r="AU10">
+        <v>168.67910448000001</v>
+      </c>
+      <c r="AV10">
+        <v>5</v>
+      </c>
+      <c r="AW10">
+        <v>1350.4747789999999</v>
+      </c>
+      <c r="AX10">
+        <v>147.82556536000001</v>
+      </c>
+      <c r="AY10">
+        <v>4</v>
+      </c>
+      <c r="AZ10">
+        <v>1344.4606898</v>
+      </c>
+      <c r="BA10">
+        <v>1.0124378109000001</v>
+      </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
+      <c r="BC10">
+        <v>0.110967306</v>
+      </c>
+      <c r="BD10">
+        <v>1.0074626866</v>
+      </c>
+      <c r="BE10">
+        <v>1</v>
+      </c>
+      <c r="BF10">
+        <v>8.6171144699999994E-2</v>
+      </c>
+      <c r="BG10">
+        <v>13.324094804</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>79.288798958000001</v>
+      </c>
+      <c r="BJ10">
+        <v>19.814127280000001</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>159.85899377000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3905,10 +4278,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR9"/>
+  <dimension ref="A1:BR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5917,6 +6290,221 @@
         <v>348.48689999999999</v>
       </c>
     </row>
+    <row r="10" spans="1:70">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>402</v>
+      </c>
+      <c r="C10">
+        <v>613</v>
+      </c>
+      <c r="D10">
+        <f>B10-301</f>
+        <v>101</v>
+      </c>
+      <c r="E10">
+        <v>311</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25124378109452739</v>
+      </c>
+      <c r="G10" s="1">
+        <f>E10/C10</f>
+        <v>0.5073409461663948</v>
+      </c>
+      <c r="H10">
+        <v>3.11</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1.7459621999999999</v>
+      </c>
+      <c r="K10">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L10">
+        <v>5.5</v>
+      </c>
+      <c r="M10">
+        <v>340.01175999999998</v>
+      </c>
+      <c r="N10">
+        <v>20.143689999999999</v>
+      </c>
+      <c r="O10">
+        <v>1.6666700000000001</v>
+      </c>
+      <c r="P10">
+        <v>84.762940999999998</v>
+      </c>
+      <c r="Q10">
+        <v>68.430000000000007</v>
+      </c>
+      <c r="R10">
+        <v>5.5</v>
+      </c>
+      <c r="S10">
+        <v>340.00637</v>
+      </c>
+      <c r="T10">
+        <v>20.15569</v>
+      </c>
+      <c r="U10">
+        <v>1.6667000000000001</v>
+      </c>
+      <c r="V10">
+        <v>84.760571999999996</v>
+      </c>
+      <c r="W10">
+        <v>14432.54</v>
+      </c>
+      <c r="X10">
+        <v>172.5</v>
+      </c>
+      <c r="Y10">
+        <v>129590.84</v>
+      </c>
+      <c r="Z10">
+        <v>2002.15</v>
+      </c>
+      <c r="AA10">
+        <v>25.5</v>
+      </c>
+      <c r="AB10">
+        <v>11109.769</v>
+      </c>
+      <c r="AC10">
+        <v>16434.689999999999</v>
+      </c>
+      <c r="AD10">
+        <v>253</v>
+      </c>
+      <c r="AE10">
+        <v>129944.67</v>
+      </c>
+      <c r="AF10">
+        <v>3602.3541</v>
+      </c>
+      <c r="AG10">
+        <v>69.5</v>
+      </c>
+      <c r="AH10">
+        <v>22397.338</v>
+      </c>
+      <c r="AI10">
+        <v>14442.23</v>
+      </c>
+      <c r="AJ10">
+        <v>175</v>
+      </c>
+      <c r="AK10">
+        <v>129590.05</v>
+      </c>
+      <c r="AL10">
+        <v>2011.84</v>
+      </c>
+      <c r="AM10">
+        <v>34.5</v>
+      </c>
+      <c r="AN10">
+        <v>11108.566000000001</v>
+      </c>
+      <c r="AO10">
+        <v>16454.07</v>
+      </c>
+      <c r="AP10">
+        <v>266</v>
+      </c>
+      <c r="AQ10">
+        <v>129942.88</v>
+      </c>
+      <c r="AR10">
+        <v>3607.6181000000001</v>
+      </c>
+      <c r="AS10">
+        <v>73.75</v>
+      </c>
+      <c r="AT10">
+        <v>22396.812999999998</v>
+      </c>
+      <c r="AU10">
+        <v>114.42</v>
+      </c>
+      <c r="AV10">
+        <v>22.5</v>
+      </c>
+      <c r="AW10">
+        <v>289.44914999999997</v>
+      </c>
+      <c r="AX10">
+        <v>36.366458999999999</v>
+      </c>
+      <c r="AY10">
+        <v>7.75</v>
+      </c>
+      <c r="AZ10">
+        <v>72.621058000000005</v>
+      </c>
+      <c r="BA10">
+        <v>122.01</v>
+      </c>
+      <c r="BB10">
+        <v>31.5</v>
+      </c>
+      <c r="BC10">
+        <v>290.16838000000001</v>
+      </c>
+      <c r="BD10">
+        <v>38.178773</v>
+      </c>
+      <c r="BE10">
+        <v>9.6666699999999999</v>
+      </c>
+      <c r="BF10">
+        <v>72.885351999999997</v>
+      </c>
+      <c r="BG10">
+        <v>1.05</v>
+      </c>
+      <c r="BH10">
+        <v>1</v>
+      </c>
+      <c r="BI10">
+        <v>0.21904290000000001</v>
+      </c>
+      <c r="BJ10">
+        <v>1.03</v>
+      </c>
+      <c r="BK10">
+        <v>1</v>
+      </c>
+      <c r="BL10">
+        <v>0.1714466</v>
+      </c>
+      <c r="BM10">
+        <v>53.562860999999998</v>
+      </c>
+      <c r="BN10">
+        <v>3.1804199999999998</v>
+      </c>
+      <c r="BO10">
+        <v>152.60174000000001</v>
+      </c>
+      <c r="BP10">
+        <v>79.652792000000005</v>
+      </c>
+      <c r="BQ10">
+        <v>4.83528</v>
+      </c>
+      <c r="BR10">
+        <v>314.15884999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/distributions.xlsx
+++ b/data/distributions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="4740" windowWidth="21340" windowHeight="11880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="9020" yWindow="4260" windowWidth="21340" windowHeight="11880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="all branch segments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
   <si>
     <t>repository</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>godot</t>
+  </si>
+  <si>
+    <t>homebrew</t>
   </si>
 </sst>
 </file>
@@ -319,9 +322,121 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="798">
+  <cellStyleXfs count="910">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1124,7 +1239,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="798">
+  <cellStyles count="910">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1523,6 +1638,62 @@
     <cellStyle name="Followed Hyperlink" xfId="793" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="795" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="797" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="799" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="801" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="803" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="805" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="807" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="809" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="811" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="813" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="815" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="817" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="819" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="821" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="823" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="825" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="827" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="829" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="831" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="833" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="835" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="837" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="839" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="841" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="843" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="845" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="847" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="849" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="851" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="853" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="855" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="857" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="859" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="861" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="863" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="865" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="867" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="869" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="871" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="873" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="875" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="877" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="879" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="881" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="883" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="885" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="887" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="889" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="891" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="893" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="895" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="897" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="899" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="901" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="903" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="905" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="907" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="909" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1921,6 +2092,62 @@
     <cellStyle name="Hyperlink" xfId="792" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="794" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="796" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="798" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="800" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="802" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="804" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="806" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="808" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="810" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="812" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="814" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="816" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="818" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="820" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="822" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="824" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="826" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="828" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="830" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="832" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="834" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="836" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="838" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="840" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="842" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="844" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="846" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="848" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="850" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="852" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="854" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="856" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="858" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="860" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="862" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="864" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="866" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="868" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="870" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="872" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="874" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="876" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="878" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="880" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="882" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="884" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="886" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="888" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="890" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="892" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="894" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="896" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="898" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="900" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="902" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="904" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="906" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="908" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2251,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL10"/>
+  <dimension ref="A1:BL11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4265,6 +4492,200 @@
         <v>159.85899377000001</v>
       </c>
     </row>
+    <row r="11" spans="1:64">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11">
+        <v>1129.5128205000001</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>3767.0422075000001</v>
+      </c>
+      <c r="E11">
+        <v>306.38461538000001</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>772.56250352999996</v>
+      </c>
+      <c r="H11">
+        <v>1.5827963707999999</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2.8551961617999999</v>
+      </c>
+      <c r="K11">
+        <v>313.23076923000002</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <v>790.86509799999999</v>
+      </c>
+      <c r="N11">
+        <v>1.5983993901</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2.8489362915999998</v>
+      </c>
+      <c r="Q11">
+        <v>6393.5897435999996</v>
+      </c>
+      <c r="R11">
+        <v>135</v>
+      </c>
+      <c r="S11">
+        <v>18137.463156999998</v>
+      </c>
+      <c r="T11">
+        <v>2554.8461538000001</v>
+      </c>
+      <c r="U11">
+        <v>22</v>
+      </c>
+      <c r="V11">
+        <v>8003.5609001000003</v>
+      </c>
+      <c r="W11">
+        <v>8948.4358974000006</v>
+      </c>
+      <c r="X11">
+        <v>215</v>
+      </c>
+      <c r="Y11">
+        <v>25970.529130999999</v>
+      </c>
+      <c r="Z11">
+        <v>39.195661815000001</v>
+      </c>
+      <c r="AA11">
+        <v>12.821467689</v>
+      </c>
+      <c r="AB11">
+        <v>115.48562716000001</v>
+      </c>
+      <c r="AC11">
+        <v>9941.6410255999999</v>
+      </c>
+      <c r="AD11">
+        <v>230</v>
+      </c>
+      <c r="AE11">
+        <v>30652.116681</v>
+      </c>
+      <c r="AF11">
+        <v>6102.8974359000003</v>
+      </c>
+      <c r="AG11">
+        <v>57</v>
+      </c>
+      <c r="AH11">
+        <v>20588.513035</v>
+      </c>
+      <c r="AI11">
+        <v>16044.538462</v>
+      </c>
+      <c r="AJ11">
+        <v>367</v>
+      </c>
+      <c r="AK11">
+        <v>51139.979679999997</v>
+      </c>
+      <c r="AL11">
+        <v>43.733315728000001</v>
+      </c>
+      <c r="AM11">
+        <v>15.284667383</v>
+      </c>
+      <c r="AN11">
+        <v>115.26823612</v>
+      </c>
+      <c r="AO11">
+        <v>913.20512821</v>
+      </c>
+      <c r="AP11">
+        <v>9</v>
+      </c>
+      <c r="AQ11">
+        <v>2595.1620594000001</v>
+      </c>
+      <c r="AR11">
+        <v>2.5006410750999999</v>
+      </c>
+      <c r="AS11">
+        <v>1.5511811024</v>
+      </c>
+      <c r="AT11">
+        <v>3.3066976184999999</v>
+      </c>
+      <c r="AU11">
+        <v>2651.5384614999998</v>
+      </c>
+      <c r="AV11">
+        <v>34</v>
+      </c>
+      <c r="AW11">
+        <v>8507.2242236999991</v>
+      </c>
+      <c r="AX11">
+        <v>3.3446615044999999</v>
+      </c>
+      <c r="AY11">
+        <v>2.1972049688999999</v>
+      </c>
+      <c r="AZ11">
+        <v>3.7019263655999999</v>
+      </c>
+      <c r="BA11">
+        <v>182.56410256000001</v>
+      </c>
+      <c r="BB11">
+        <v>2</v>
+      </c>
+      <c r="BC11">
+        <v>525.60610600999996</v>
+      </c>
+      <c r="BD11">
+        <v>3.6923076923</v>
+      </c>
+      <c r="BE11">
+        <v>1</v>
+      </c>
+      <c r="BF11">
+        <v>5.4102915873999997</v>
+      </c>
+      <c r="BG11">
+        <v>2999.1013247999999</v>
+      </c>
+      <c r="BH11">
+        <v>5.1513888888999997</v>
+      </c>
+      <c r="BI11">
+        <v>6728.8444114000004</v>
+      </c>
+      <c r="BJ11">
+        <v>4608.3409117000001</v>
+      </c>
+      <c r="BK11">
+        <v>303.94777778000002</v>
+      </c>
+      <c r="BL11">
+        <v>8398.6269446000006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4278,10 +4699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR10"/>
+  <dimension ref="A1:BR11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6308,7 +6729,7 @@
         <v>311</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
+        <f>D10/B10</f>
         <v>0.25124378109452739</v>
       </c>
       <c r="G10" s="1">
@@ -6503,6 +6924,221 @@
       </c>
       <c r="BR10">
         <v>314.15884999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>44051</v>
+      </c>
+      <c r="D11">
+        <f>B11-14</f>
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>44037</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64102564102564108</v>
+      </c>
+      <c r="G11" s="1">
+        <f>E11/C11</f>
+        <v>0.99968218655649133</v>
+      </c>
+      <c r="H11">
+        <v>1761.48</v>
+      </c>
+      <c r="I11">
+        <v>127</v>
+      </c>
+      <c r="J11">
+        <v>4616.2255999999998</v>
+      </c>
+      <c r="K11">
+        <v>476.44</v>
+      </c>
+      <c r="L11">
+        <v>49</v>
+      </c>
+      <c r="M11">
+        <v>927.94953999999996</v>
+      </c>
+      <c r="N11">
+        <v>0.94916230000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.81101999999999996</v>
+      </c>
+      <c r="P11">
+        <v>1.1719520000000001</v>
+      </c>
+      <c r="Q11">
+        <v>487.12</v>
+      </c>
+      <c r="R11">
+        <v>69</v>
+      </c>
+      <c r="S11">
+        <v>950.03720999999996</v>
+      </c>
+      <c r="T11">
+        <v>0.97350300000000001</v>
+      </c>
+      <c r="U11">
+        <v>0.81650999999999996</v>
+      </c>
+      <c r="V11">
+        <v>1.1613979000000001</v>
+      </c>
+      <c r="W11">
+        <v>9934.2000000000007</v>
+      </c>
+      <c r="X11">
+        <v>1627</v>
+      </c>
+      <c r="Y11">
+        <v>22010.662</v>
+      </c>
+      <c r="Z11">
+        <v>3983.76</v>
+      </c>
+      <c r="AA11">
+        <v>370</v>
+      </c>
+      <c r="AB11">
+        <v>9772.3428999999996</v>
+      </c>
+      <c r="AC11">
+        <v>13917.96</v>
+      </c>
+      <c r="AD11">
+        <v>1950</v>
+      </c>
+      <c r="AE11">
+        <v>31563.045999999998</v>
+      </c>
+      <c r="AF11">
+        <v>19.545231999999999</v>
+      </c>
+      <c r="AG11">
+        <v>13.184900000000001</v>
+      </c>
+      <c r="AH11">
+        <v>24.856787000000001</v>
+      </c>
+      <c r="AI11">
+        <v>15469.16</v>
+      </c>
+      <c r="AJ11">
+        <v>1695</v>
+      </c>
+      <c r="AK11">
+        <v>37402.476999999999</v>
+      </c>
+      <c r="AL11">
+        <v>9518.7199999999993</v>
+      </c>
+      <c r="AM11">
+        <v>562</v>
+      </c>
+      <c r="AN11">
+        <v>25244.734</v>
+      </c>
+      <c r="AO11">
+        <v>24987.88</v>
+      </c>
+      <c r="AP11">
+        <v>3260</v>
+      </c>
+      <c r="AQ11">
+        <v>62520.186999999998</v>
+      </c>
+      <c r="AR11">
+        <v>26.623972999999999</v>
+      </c>
+      <c r="AS11">
+        <v>15.9565</v>
+      </c>
+      <c r="AT11">
+        <v>28.451518</v>
+      </c>
+      <c r="AU11">
+        <v>1422.68</v>
+      </c>
+      <c r="AV11">
+        <v>81</v>
+      </c>
+      <c r="AW11">
+        <v>3148.0668999999998</v>
+      </c>
+      <c r="AX11">
+        <v>1.9810000999999999</v>
+      </c>
+      <c r="AY11">
+        <v>1.4967900000000001</v>
+      </c>
+      <c r="AZ11">
+        <v>2.2292325000000002</v>
+      </c>
+      <c r="BA11">
+        <v>4134.4799999999996</v>
+      </c>
+      <c r="BB11">
+        <v>320</v>
+      </c>
+      <c r="BC11">
+        <v>10402.355</v>
+      </c>
+      <c r="BD11">
+        <v>3.2976719000000001</v>
+      </c>
+      <c r="BE11">
+        <v>2.4874000000000001</v>
+      </c>
+      <c r="BF11">
+        <v>3.1831554999999998</v>
+      </c>
+      <c r="BG11">
+        <v>284.24</v>
+      </c>
+      <c r="BH11">
+        <v>24</v>
+      </c>
+      <c r="BI11">
+        <v>638.29136000000005</v>
+      </c>
+      <c r="BJ11">
+        <v>5.2</v>
+      </c>
+      <c r="BK11">
+        <v>4</v>
+      </c>
+      <c r="BL11">
+        <v>6.3047601000000002</v>
+      </c>
+      <c r="BM11">
+        <v>4678.5981000000002</v>
+      </c>
+      <c r="BN11">
+        <v>855.07500000000005</v>
+      </c>
+      <c r="BO11">
+        <v>7968.9421000000002</v>
+      </c>
+      <c r="BP11">
+        <v>7189.0118000000002</v>
+      </c>
+      <c r="BQ11">
+        <v>2893.13</v>
+      </c>
+      <c r="BR11">
+        <v>9610.3063000000002</v>
       </c>
     </row>
   </sheetData>

--- a/data/distributions.xlsx
+++ b/data/distributions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="4260" windowWidth="21340" windowHeight="11880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all branch segments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
   <si>
     <t>repository</t>
   </si>
@@ -232,9 +232,6 @@
     <t>percentage of repo coverage</t>
   </si>
   <si>
-    <t>angular</t>
-  </si>
-  <si>
     <t>bootstrap</t>
   </si>
   <si>
@@ -260,6 +257,12 @@
   </si>
   <si>
     <t>homebrew</t>
+  </si>
+  <si>
+    <t>html5-boilerplate</t>
+  </si>
+  <si>
+    <t>angular.js</t>
   </si>
 </sst>
 </file>
@@ -322,9 +325,107 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="910">
+  <cellStyleXfs count="1008">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1239,7 +1340,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="910">
+  <cellStyles count="1008">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1694,6 +1795,55 @@
     <cellStyle name="Followed Hyperlink" xfId="905" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="907" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="909" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="911" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="913" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="915" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="917" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="919" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="921" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="923" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="925" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="927" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="929" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="931" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="933" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="935" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="937" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="939" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="941" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="943" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="945" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="947" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="949" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="951" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="953" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="955" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="957" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="959" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="961" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="963" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="965" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="967" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="969" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="971" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="973" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="975" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="977" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="979" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="981" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="983" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="985" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="987" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="989" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="991" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="993" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="995" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="997" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="999" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1001" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1003" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1005" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1007" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2148,6 +2298,55 @@
     <cellStyle name="Hyperlink" xfId="904" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="906" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="908" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="910" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="912" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="914" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="916" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="918" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="920" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="922" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="924" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="926" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="928" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="930" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="932" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="934" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="936" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="938" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="940" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="942" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="944" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="946" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="948" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="950" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="952" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="954" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="956" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="958" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="960" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="962" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="964" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="966" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="968" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="970" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="972" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="974" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="976" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="978" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="980" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="982" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="984" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="986" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="988" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="990" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="992" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="994" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="996" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="998" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1000" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1002" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1004" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1006" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2478,15 +2677,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL11"/>
+  <dimension ref="A1:BL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -2748,7 +2947,7 @@
     </row>
     <row r="2" spans="1:64">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>77.381818182000004</v>
@@ -2942,7 +3141,7 @@
     </row>
     <row r="3" spans="1:64">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>1.9310344827999999</v>
@@ -3136,7 +3335,7 @@
     </row>
     <row r="4" spans="1:64">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>3.3612622416</v>
@@ -3330,7 +3529,7 @@
     </row>
     <row r="5" spans="1:64">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>20.582394365999999</v>
@@ -3524,7 +3723,7 @@
     </row>
     <row r="6" spans="1:64">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>1.7350009404</v>
@@ -3718,7 +3917,7 @@
     </row>
     <row r="7" spans="1:64">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>2.3971830985999998</v>
@@ -3912,7 +4111,7 @@
     </row>
     <row r="8" spans="1:64">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>3.3768472906000002</v>
@@ -4106,7 +4305,7 @@
     </row>
     <row r="9" spans="1:64">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9">
         <v>2.0412639404999999</v>
@@ -4300,7 +4499,7 @@
     </row>
     <row r="10" spans="1:64">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>1.5248756218999999</v>
@@ -4494,7 +4693,7 @@
     </row>
     <row r="11" spans="1:64">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11">
         <v>1129.5128205000001</v>
@@ -4684,6 +4883,200 @@
       </c>
       <c r="BL11">
         <v>8398.6269446000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>3.6260387812000001</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>9.8254933768000008</v>
+      </c>
+      <c r="E12">
+        <v>3.5983379500999999</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.2039262063000002</v>
+      </c>
+      <c r="H12">
+        <v>1.2547427733000001</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1.1058423257000001</v>
+      </c>
+      <c r="K12">
+        <v>3.9113573407</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.6221876952999992</v>
+      </c>
+      <c r="N12">
+        <v>1.2808631237999999</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1.1163774758</v>
+      </c>
+      <c r="Q12">
+        <v>228.04432133</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>1097.8992912000001</v>
+      </c>
+      <c r="T12">
+        <v>208.70914127</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>1495.2440885999999</v>
+      </c>
+      <c r="W12">
+        <v>436.75346259999998</v>
+      </c>
+      <c r="X12">
+        <v>12</v>
+      </c>
+      <c r="Y12">
+        <v>1945.4305001</v>
+      </c>
+      <c r="Z12">
+        <v>123.40619778999999</v>
+      </c>
+      <c r="AA12">
+        <v>6.75</v>
+      </c>
+      <c r="AB12">
+        <v>746.09397995999996</v>
+      </c>
+      <c r="AC12">
+        <v>299.19390582</v>
+      </c>
+      <c r="AD12">
+        <v>7</v>
+      </c>
+      <c r="AE12">
+        <v>1462.6201759</v>
+      </c>
+      <c r="AF12">
+        <v>279.85872576000003</v>
+      </c>
+      <c r="AG12">
+        <v>5</v>
+      </c>
+      <c r="AH12">
+        <v>1651.9682585</v>
+      </c>
+      <c r="AI12">
+        <v>579.05263158000002</v>
+      </c>
+      <c r="AJ12">
+        <v>13</v>
+      </c>
+      <c r="AK12">
+        <v>2576.6137014999999</v>
+      </c>
+      <c r="AL12">
+        <v>146.50662685</v>
+      </c>
+      <c r="AM12">
+        <v>7.4</v>
+      </c>
+      <c r="AN12">
+        <v>813.21849014999998</v>
+      </c>
+      <c r="AO12">
+        <v>22.731301939000002</v>
+      </c>
+      <c r="AP12">
+        <v>3</v>
+      </c>
+      <c r="AQ12">
+        <v>77.227674520999997</v>
+      </c>
+      <c r="AR12">
+        <v>8.9979657027000002</v>
+      </c>
+      <c r="AS12">
+        <v>1.8</v>
+      </c>
+      <c r="AT12">
+        <v>36.576322773000001</v>
+      </c>
+      <c r="AU12">
+        <v>29.277008309999999</v>
+      </c>
+      <c r="AV12">
+        <v>4</v>
+      </c>
+      <c r="AW12">
+        <v>104.03453352</v>
+      </c>
+      <c r="AX12">
+        <v>9.3835033458999995</v>
+      </c>
+      <c r="AY12">
+        <v>2</v>
+      </c>
+      <c r="AZ12">
+        <v>36.538496025999997</v>
+      </c>
+      <c r="BA12">
+        <v>1.6675900277</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
+      <c r="BC12">
+        <v>2.6729669342000002</v>
+      </c>
+      <c r="BD12">
+        <v>1.3157894737</v>
+      </c>
+      <c r="BE12">
+        <v>1</v>
+      </c>
+      <c r="BF12">
+        <v>0.79930525389999996</v>
+      </c>
+      <c r="BG12">
+        <v>105.84719914</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>642.27950982000004</v>
+      </c>
+      <c r="BJ12">
+        <v>130.97693444000001</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>724.47588901999995</v>
       </c>
     </row>
   </sheetData>
@@ -4699,15 +5092,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR11"/>
+  <dimension ref="A1:BR12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
@@ -4993,7 +5386,7 @@
     </row>
     <row r="2" spans="1:70">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>110</v>
@@ -5208,7 +5601,7 @@
     </row>
     <row r="3" spans="1:70">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>4292</v>
@@ -5423,7 +5816,7 @@
     </row>
     <row r="4" spans="1:70">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>919</v>
@@ -5638,7 +6031,7 @@
     </row>
     <row r="5" spans="1:70">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>1420</v>
@@ -5853,7 +6246,7 @@
     </row>
     <row r="6" spans="1:70">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <v>5317</v>
@@ -6068,7 +6461,7 @@
     </row>
     <row r="7" spans="1:70">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>365</v>
@@ -6084,7 +6477,7 @@
         <v>655</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F18" si="0">D7/B7</f>
+        <f t="shared" ref="F7:F12" si="0">D7/B7</f>
         <v>0.46301369863013697</v>
       </c>
       <c r="G7" s="1">
@@ -6283,7 +6676,7 @@
     </row>
     <row r="8" spans="1:70">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>9338</v>
@@ -6498,7 +6891,7 @@
     </row>
     <row r="9" spans="1:70">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9">
         <v>5380</v>
@@ -6713,7 +7106,7 @@
     </row>
     <row r="10" spans="1:70">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>402</v>
@@ -6928,7 +7321,7 @@
     </row>
     <row r="11" spans="1:70">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11">
         <v>39</v>
@@ -7139,6 +7532,221 @@
       </c>
       <c r="BR11">
         <v>9610.3063000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12">
+        <v>361</v>
+      </c>
+      <c r="C12">
+        <v>1309</v>
+      </c>
+      <c r="D12">
+        <f>B12-191</f>
+        <v>170</v>
+      </c>
+      <c r="E12">
+        <v>1118</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47091412742382271</v>
+      </c>
+      <c r="G12" s="1">
+        <f>E12/C12</f>
+        <v>0.85408708938120703</v>
+      </c>
+      <c r="H12">
+        <v>6.5764706000000004</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>13.751279</v>
+      </c>
+      <c r="K12">
+        <v>6.0352940999999998</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>9.8838784999999998</v>
+      </c>
+      <c r="N12">
+        <v>1.0586008</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0.98233599999999999</v>
+      </c>
+      <c r="Q12">
+        <v>6.7</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>11.916797000000001</v>
+      </c>
+      <c r="T12">
+        <v>1.1140682</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1.017401</v>
+      </c>
+      <c r="W12">
+        <v>385.94117999999997</v>
+      </c>
+      <c r="X12">
+        <v>23</v>
+      </c>
+      <c r="Y12">
+        <v>1356.3889999999999</v>
+      </c>
+      <c r="Z12">
+        <v>414.54705999999999</v>
+      </c>
+      <c r="AA12">
+        <v>15.5</v>
+      </c>
+      <c r="AB12">
+        <v>2159.9596999999999</v>
+      </c>
+      <c r="AC12">
+        <v>800.48824000000002</v>
+      </c>
+      <c r="AD12">
+        <v>43</v>
+      </c>
+      <c r="AE12">
+        <v>2660.0401000000002</v>
+      </c>
+      <c r="AF12">
+        <v>135.08609999999999</v>
+      </c>
+      <c r="AG12">
+        <v>12</v>
+      </c>
+      <c r="AH12">
+        <v>671.40704000000005</v>
+      </c>
+      <c r="AI12">
+        <v>537.02940999999998</v>
+      </c>
+      <c r="AJ12">
+        <v>27</v>
+      </c>
+      <c r="AK12">
+        <v>1941.3824999999999</v>
+      </c>
+      <c r="AL12">
+        <v>565.63529000000005</v>
+      </c>
+      <c r="AM12">
+        <v>18.5</v>
+      </c>
+      <c r="AN12">
+        <v>2375.1646999999998</v>
+      </c>
+      <c r="AO12">
+        <v>1102.6647</v>
+      </c>
+      <c r="AP12">
+        <v>47.5</v>
+      </c>
+      <c r="AQ12">
+        <v>3589.7249999999999</v>
+      </c>
+      <c r="AR12">
+        <v>184.14053999999999</v>
+      </c>
+      <c r="AS12">
+        <v>15.4</v>
+      </c>
+      <c r="AT12">
+        <v>819.33853999999997</v>
+      </c>
+      <c r="AU12">
+        <v>37.9</v>
+      </c>
+      <c r="AV12">
+        <v>8</v>
+      </c>
+      <c r="AW12">
+        <v>102.27302</v>
+      </c>
+      <c r="AX12">
+        <v>8.7368565999999994</v>
+      </c>
+      <c r="AY12">
+        <v>2</v>
+      </c>
+      <c r="AZ12">
+        <v>32.284432000000002</v>
+      </c>
+      <c r="BA12">
+        <v>51.8</v>
+      </c>
+      <c r="BB12">
+        <v>10</v>
+      </c>
+      <c r="BC12">
+        <v>142.41994</v>
+      </c>
+      <c r="BD12">
+        <v>9.5555570999999997</v>
+      </c>
+      <c r="BE12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="BF12">
+        <v>32.194198999999998</v>
+      </c>
+      <c r="BG12">
+        <v>2.4176470999999999</v>
+      </c>
+      <c r="BH12">
+        <v>1</v>
+      </c>
+      <c r="BI12">
+        <v>3.7616463000000002</v>
+      </c>
+      <c r="BJ12">
+        <v>1.6705882000000001</v>
+      </c>
+      <c r="BK12">
+        <v>1</v>
+      </c>
+      <c r="BL12">
+        <v>1.0590633</v>
+      </c>
+      <c r="BM12">
+        <v>224.76964000000001</v>
+      </c>
+      <c r="BN12">
+        <v>14.3322</v>
+      </c>
+      <c r="BO12">
+        <v>922.96199000000001</v>
+      </c>
+      <c r="BP12">
+        <v>278.13337000000001</v>
+      </c>
+      <c r="BQ12">
+        <v>22.761500000000002</v>
+      </c>
+      <c r="BR12">
+        <v>1037.7307000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/distributions.xlsx
+++ b/data/distributions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="all branch segments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
   <si>
     <t>repository</t>
   </si>
@@ -264,6 +264,9 @@
   <si>
     <t>angular.js</t>
   </si>
+  <si>
+    <t>impress.js</t>
+  </si>
 </sst>
 </file>
 
@@ -325,9 +328,97 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1008">
+  <cellStyleXfs count="1096">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1340,7 +1431,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1008">
+  <cellStyles count="1096">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1844,6 +1935,50 @@
     <cellStyle name="Followed Hyperlink" xfId="1003" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1005" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1007" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1009" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1011" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1013" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1015" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1017" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1019" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1021" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1023" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1025" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1027" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1029" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1031" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1033" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1035" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1037" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1039" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1041" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1043" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1045" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1047" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1049" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1051" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1053" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1055" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1057" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1059" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1061" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1063" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1065" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1067" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1069" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1071" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1073" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1075" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1077" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1079" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1081" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1083" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1085" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1087" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1089" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1091" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1093" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1095" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2347,6 +2482,50 @@
     <cellStyle name="Hyperlink" xfId="1002" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1004" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1006" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1008" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1010" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1012" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1014" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1016" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1018" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1020" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1022" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1024" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1026" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1028" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1030" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1032" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1034" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1036" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1038" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1040" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1042" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1044" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1046" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1048" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1050" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1052" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1054" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1056" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1058" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1060" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1062" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1064" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1066" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1068" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1070" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1072" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1074" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1076" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1078" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1080" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1082" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1084" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1086" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1088" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1090" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1092" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1094" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2677,10 +2856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL12"/>
+  <dimension ref="A1:BL13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5079,6 +5258,200 @@
         <v>724.47588901999995</v>
       </c>
     </row>
+    <row r="13" spans="1:64">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13">
+        <v>1.6557377048999999</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1.5628459513999999</v>
+      </c>
+      <c r="E13">
+        <v>1.4590163934</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.84450132950000001</v>
+      </c>
+      <c r="H13">
+        <v>1.0707455113</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.56592700230000004</v>
+      </c>
+      <c r="K13">
+        <v>1.4672131148000001</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.85458826030000001</v>
+      </c>
+      <c r="N13">
+        <v>1.0734777518</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0.56476348060000003</v>
+      </c>
+      <c r="Q13">
+        <v>31.754098361</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>73.033368517</v>
+      </c>
+      <c r="T13">
+        <v>12.073770492</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>34.208685774000003</v>
+      </c>
+      <c r="W13">
+        <v>43.827868852000002</v>
+      </c>
+      <c r="X13">
+        <v>7.5</v>
+      </c>
+      <c r="Y13">
+        <v>100.45414995</v>
+      </c>
+      <c r="Z13">
+        <v>24.362080406</v>
+      </c>
+      <c r="AA13">
+        <v>6</v>
+      </c>
+      <c r="AB13">
+        <v>61.517625834</v>
+      </c>
+      <c r="AC13">
+        <v>32.844262295</v>
+      </c>
+      <c r="AD13">
+        <v>5</v>
+      </c>
+      <c r="AE13">
+        <v>76.884803868999995</v>
+      </c>
+      <c r="AF13">
+        <v>13.163934426000001</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>40.223212050999997</v>
+      </c>
+      <c r="AI13">
+        <v>46.008196720999997</v>
+      </c>
+      <c r="AJ13">
+        <v>7.5</v>
+      </c>
+      <c r="AK13">
+        <v>110.18703077000001</v>
+      </c>
+      <c r="AL13">
+        <v>24.689363778000001</v>
+      </c>
+      <c r="AM13">
+        <v>6</v>
+      </c>
+      <c r="AN13">
+        <v>61.617414599</v>
+      </c>
+      <c r="AO13">
+        <v>6.7459016393000004</v>
+      </c>
+      <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AQ13">
+        <v>12.968213826</v>
+      </c>
+      <c r="AR13">
+        <v>3.925214676</v>
+      </c>
+      <c r="AS13">
+        <v>1.5</v>
+      </c>
+      <c r="AT13">
+        <v>6.9475167611000002</v>
+      </c>
+      <c r="AU13">
+        <v>7.5983606556999996</v>
+      </c>
+      <c r="AV13">
+        <v>2</v>
+      </c>
+      <c r="AW13">
+        <v>16.408352960999999</v>
+      </c>
+      <c r="AX13">
+        <v>4.0572209211999999</v>
+      </c>
+      <c r="AY13">
+        <v>1.5</v>
+      </c>
+      <c r="AZ13">
+        <v>6.9784249613</v>
+      </c>
+      <c r="BA13">
+        <v>1.0163934426000001</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <v>0.18107149210000001</v>
+      </c>
+      <c r="BD13">
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <v>1</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>16.838253643000002</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>106.43458381000001</v>
+      </c>
+      <c r="BJ13">
+        <v>18.396527777999999</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>107.57058272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5092,10 +5465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR12"/>
+  <dimension ref="A1:BR13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BR13" sqref="BR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6477,7 +6850,7 @@
         <v>655</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F12" si="0">D7/B7</f>
+        <f t="shared" ref="F7:F13" si="0">D7/B7</f>
         <v>0.46301369863013697</v>
       </c>
       <c r="G7" s="1">
@@ -7747,6 +8120,221 @@
       </c>
       <c r="BR12">
         <v>1037.7307000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13">
+        <v>122</v>
+      </c>
+      <c r="C13">
+        <v>202</v>
+      </c>
+      <c r="D13">
+        <f>B13-85</f>
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>117</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30327868852459017</v>
+      </c>
+      <c r="G13" s="1">
+        <f>E13/C13</f>
+        <v>0.57920792079207917</v>
+      </c>
+      <c r="H13">
+        <v>3.1621622</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2.2049629999999998</v>
+      </c>
+      <c r="K13">
+        <v>2.0270269999999999</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>1.1176982</v>
+      </c>
+      <c r="N13">
+        <v>0.74678250000000002</v>
+      </c>
+      <c r="O13">
+        <v>0.5</v>
+      </c>
+      <c r="P13">
+        <v>0.49975750000000002</v>
+      </c>
+      <c r="Q13">
+        <v>2.0540541000000001</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>1.1290591999999999</v>
+      </c>
+      <c r="T13">
+        <v>0.75579149999999995</v>
+      </c>
+      <c r="U13">
+        <v>0.5</v>
+      </c>
+      <c r="V13">
+        <v>0.50127529999999998</v>
+      </c>
+      <c r="W13">
+        <v>64.837838000000005</v>
+      </c>
+      <c r="X13">
+        <v>21</v>
+      </c>
+      <c r="Y13">
+        <v>97.414496</v>
+      </c>
+      <c r="Z13">
+        <v>27.621621999999999</v>
+      </c>
+      <c r="AA13">
+        <v>6</v>
+      </c>
+      <c r="AB13">
+        <v>52.727471000000001</v>
+      </c>
+      <c r="AC13">
+        <v>92.459458999999995</v>
+      </c>
+      <c r="AD13">
+        <v>27</v>
+      </c>
+      <c r="AE13">
+        <v>138.29087999999999</v>
+      </c>
+      <c r="AF13">
+        <v>28.274968000000001</v>
+      </c>
+      <c r="AG13">
+        <v>13</v>
+      </c>
+      <c r="AH13">
+        <v>37.327537</v>
+      </c>
+      <c r="AI13">
+        <v>68.432432000000006</v>
+      </c>
+      <c r="AJ13">
+        <v>22</v>
+      </c>
+      <c r="AK13">
+        <v>105.71937</v>
+      </c>
+      <c r="AL13">
+        <v>31.216215999999999</v>
+      </c>
+      <c r="AM13">
+        <v>8</v>
+      </c>
+      <c r="AN13">
+        <v>64.503719000000004</v>
+      </c>
+      <c r="AO13">
+        <v>99.648649000000006</v>
+      </c>
+      <c r="AP13">
+        <v>28</v>
+      </c>
+      <c r="AQ13">
+        <v>158.93224000000001</v>
+      </c>
+      <c r="AR13">
+        <v>29.354118</v>
+      </c>
+      <c r="AS13">
+        <v>13.5</v>
+      </c>
+      <c r="AT13">
+        <v>37.750906000000001</v>
+      </c>
+      <c r="AU13">
+        <v>13.918919000000001</v>
+      </c>
+      <c r="AV13">
+        <v>6</v>
+      </c>
+      <c r="AW13">
+        <v>19.279204</v>
+      </c>
+      <c r="AX13">
+        <v>4.6182753999999999</v>
+      </c>
+      <c r="AY13">
+        <v>2.5</v>
+      </c>
+      <c r="AZ13">
+        <v>6.6226991999999996</v>
+      </c>
+      <c r="BA13">
+        <v>16.72973</v>
+      </c>
+      <c r="BB13">
+        <v>6</v>
+      </c>
+      <c r="BC13">
+        <v>25.773208</v>
+      </c>
+      <c r="BD13">
+        <v>5.0535392999999997</v>
+      </c>
+      <c r="BE13">
+        <v>2.5</v>
+      </c>
+      <c r="BF13">
+        <v>6.6746613000000004</v>
+      </c>
+      <c r="BG13">
+        <v>1.0540541000000001</v>
+      </c>
+      <c r="BH13">
+        <v>1</v>
+      </c>
+      <c r="BI13">
+        <v>0.32879799999999998</v>
+      </c>
+      <c r="BJ13">
+        <v>1</v>
+      </c>
+      <c r="BK13">
+        <v>1</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>55.520727999999998</v>
+      </c>
+      <c r="BN13">
+        <v>0.90693999999999997</v>
+      </c>
+      <c r="BO13">
+        <v>189.38956999999999</v>
+      </c>
+      <c r="BP13">
+        <v>60.658821000000003</v>
+      </c>
+      <c r="BQ13">
+        <v>1.90222</v>
+      </c>
+      <c r="BR13">
+        <v>190.41551999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/distributions.xlsx
+++ b/data/distributions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all branch segments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
   <si>
     <t>repository</t>
   </si>
@@ -267,6 +267,9 @@
   <si>
     <t>impress.js</t>
   </si>
+  <si>
+    <t>jquery</t>
+  </si>
 </sst>
 </file>
 
@@ -328,9 +331,103 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1096">
+  <cellStyleXfs count="1190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1431,7 +1528,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1096">
+  <cellStyles count="1190">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1979,6 +2076,53 @@
     <cellStyle name="Followed Hyperlink" xfId="1091" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1093" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1095" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1097" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1099" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1189" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2526,6 +2670,53 @@
     <cellStyle name="Hyperlink" xfId="1090" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1092" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1094" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1096" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1098" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1188" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2856,10 +3047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL13"/>
+  <dimension ref="A1:BL14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5452,6 +5643,200 @@
         <v>107.57058272</v>
       </c>
     </row>
+    <row r="14" spans="1:64">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12.530938124</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>91.389635850999994</v>
+      </c>
+      <c r="E14">
+        <v>7.0758483033999999</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>18.132353282</v>
+      </c>
+      <c r="H14">
+        <v>1.3383361937</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1.0576698180999999</v>
+      </c>
+      <c r="K14">
+        <v>7.6886227544999999</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>21.800799304000002</v>
+      </c>
+      <c r="N14">
+        <v>1.3832761727</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1.2130407321000001</v>
+      </c>
+      <c r="Q14">
+        <v>411.50898203999998</v>
+      </c>
+      <c r="R14">
+        <v>21</v>
+      </c>
+      <c r="S14">
+        <v>2866.1882538</v>
+      </c>
+      <c r="T14">
+        <v>282.07185629000003</v>
+      </c>
+      <c r="U14">
+        <v>8</v>
+      </c>
+      <c r="V14">
+        <v>1522.9042907999999</v>
+      </c>
+      <c r="W14">
+        <v>693.58083832</v>
+      </c>
+      <c r="X14">
+        <v>33</v>
+      </c>
+      <c r="Y14">
+        <v>3874.0391727000001</v>
+      </c>
+      <c r="Z14">
+        <v>40.855366687999997</v>
+      </c>
+      <c r="AA14">
+        <v>15</v>
+      </c>
+      <c r="AB14">
+        <v>92.042848191999994</v>
+      </c>
+      <c r="AC14">
+        <v>768.54491017999999</v>
+      </c>
+      <c r="AD14">
+        <v>22</v>
+      </c>
+      <c r="AE14">
+        <v>7291.1985047999997</v>
+      </c>
+      <c r="AF14">
+        <v>639.10778443000004</v>
+      </c>
+      <c r="AG14">
+        <v>12</v>
+      </c>
+      <c r="AH14">
+        <v>5348.3568771</v>
+      </c>
+      <c r="AI14">
+        <v>1407.6526945999999</v>
+      </c>
+      <c r="AJ14">
+        <v>36</v>
+      </c>
+      <c r="AK14">
+        <v>12548.809831</v>
+      </c>
+      <c r="AL14">
+        <v>49.055285529999999</v>
+      </c>
+      <c r="AM14">
+        <v>17.3125</v>
+      </c>
+      <c r="AN14">
+        <v>116.31273371</v>
+      </c>
+      <c r="AO14">
+        <v>51.646706586999997</v>
+      </c>
+      <c r="AP14">
+        <v>6</v>
+      </c>
+      <c r="AQ14">
+        <v>186.00614218999999</v>
+      </c>
+      <c r="AR14">
+        <v>6.0761086969999996</v>
+      </c>
+      <c r="AS14">
+        <v>3</v>
+      </c>
+      <c r="AT14">
+        <v>11.712891285</v>
+      </c>
+      <c r="AU14">
+        <v>100.80838323</v>
+      </c>
+      <c r="AV14">
+        <v>7</v>
+      </c>
+      <c r="AW14">
+        <v>687.05204693999997</v>
+      </c>
+      <c r="AX14">
+        <v>7.1418362565000004</v>
+      </c>
+      <c r="AY14">
+        <v>3.6666666666999999</v>
+      </c>
+      <c r="AZ14">
+        <v>15.422753452</v>
+      </c>
+      <c r="BA14">
+        <v>2.2634730538999999</v>
+      </c>
+      <c r="BB14">
+        <v>1</v>
+      </c>
+      <c r="BC14">
+        <v>4.7394559934</v>
+      </c>
+      <c r="BD14">
+        <v>1.4271457085999999</v>
+      </c>
+      <c r="BE14">
+        <v>1</v>
+      </c>
+      <c r="BF14">
+        <v>1.4272987202</v>
+      </c>
+      <c r="BG14">
+        <v>193.37541306</v>
+      </c>
+      <c r="BH14">
+        <v>6.6666666700000002E-2</v>
+      </c>
+      <c r="BI14">
+        <v>1628.2352662999999</v>
+      </c>
+      <c r="BJ14">
+        <v>333.64346696000001</v>
+      </c>
+      <c r="BK14">
+        <v>0.25666666669999999</v>
+      </c>
+      <c r="BL14">
+        <v>1873.4887871999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5465,10 +5850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR13"/>
+  <dimension ref="A1:BR14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BR13" sqref="BR13"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BP15" sqref="BP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8337,6 +8722,220 @@
         <v>190.41551999999999</v>
       </c>
     </row>
+    <row r="14" spans="1:70">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14">
+        <v>501</v>
+      </c>
+      <c r="C14">
+        <v>6278</v>
+      </c>
+      <c r="D14">
+        <v>276</v>
+      </c>
+      <c r="E14">
+        <v>6053</v>
+      </c>
+      <c r="F14" s="1">
+        <f>D14/B14</f>
+        <v>0.55089820359281438</v>
+      </c>
+      <c r="G14" s="1">
+        <f>E14/C14</f>
+        <v>0.96416056068811729</v>
+      </c>
+      <c r="H14">
+        <v>21.931159000000001</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>122.4259</v>
+      </c>
+      <c r="K14">
+        <v>11.514493</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>23.508987999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.099661</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0.90642469999999997</v>
+      </c>
+      <c r="Q14">
+        <v>12.626811999999999</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>28.435096999999999</v>
+      </c>
+      <c r="T14">
+        <v>1.1812368</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1.2243965999999999</v>
+      </c>
+      <c r="W14">
+        <v>732.87680999999998</v>
+      </c>
+      <c r="X14">
+        <v>60</v>
+      </c>
+      <c r="Y14">
+        <v>3834.6774</v>
+      </c>
+      <c r="Z14">
+        <v>504.43840999999998</v>
+      </c>
+      <c r="AA14">
+        <v>30.5</v>
+      </c>
+      <c r="AB14">
+        <v>2026.3276000000001</v>
+      </c>
+      <c r="AC14">
+        <v>1237.3152</v>
+      </c>
+      <c r="AD14">
+        <v>90</v>
+      </c>
+      <c r="AE14">
+        <v>5159.9524000000001</v>
+      </c>
+      <c r="AF14">
+        <v>52.476590000000002</v>
+      </c>
+      <c r="AG14">
+        <v>18.464300000000001</v>
+      </c>
+      <c r="AH14">
+        <v>115.38185</v>
+      </c>
+      <c r="AI14">
+        <v>1380.9746</v>
+      </c>
+      <c r="AJ14">
+        <v>66</v>
+      </c>
+      <c r="AK14">
+        <v>9788.6843000000008</v>
+      </c>
+      <c r="AL14">
+        <v>1152.5362</v>
+      </c>
+      <c r="AM14">
+        <v>41</v>
+      </c>
+      <c r="AN14">
+        <v>7170.7430000000004</v>
+      </c>
+      <c r="AO14">
+        <v>2533.5109000000002</v>
+      </c>
+      <c r="AP14">
+        <v>116.5</v>
+      </c>
+      <c r="AQ14">
+        <v>16836.846000000001</v>
+      </c>
+      <c r="AR14">
+        <v>67.361225000000005</v>
+      </c>
+      <c r="AS14">
+        <v>22.9405</v>
+      </c>
+      <c r="AT14">
+        <v>148.52615</v>
+      </c>
+      <c r="AU14">
+        <v>89.641304000000005</v>
+      </c>
+      <c r="AV14">
+        <v>17.5</v>
+      </c>
+      <c r="AW14">
+        <v>244.20988</v>
+      </c>
+      <c r="AX14">
+        <v>6.9207625000000004</v>
+      </c>
+      <c r="AY14">
+        <v>3.5</v>
+      </c>
+      <c r="AZ14">
+        <v>14.367238</v>
+      </c>
+      <c r="BA14">
+        <v>178.88042999999999</v>
+      </c>
+      <c r="BB14">
+        <v>21.5</v>
+      </c>
+      <c r="BC14">
+        <v>919.0172</v>
+      </c>
+      <c r="BD14">
+        <v>8.8552897000000002</v>
+      </c>
+      <c r="BE14">
+        <v>4.0916699999999997</v>
+      </c>
+      <c r="BF14">
+        <v>19.608321</v>
+      </c>
+      <c r="BG14">
+        <v>3.2934782999999999</v>
+      </c>
+      <c r="BH14">
+        <v>1</v>
+      </c>
+      <c r="BI14">
+        <v>6.2024125000000003</v>
+      </c>
+      <c r="BJ14">
+        <v>1.7753623000000001</v>
+      </c>
+      <c r="BK14">
+        <v>1</v>
+      </c>
+      <c r="BL14">
+        <v>1.8528332000000001</v>
+      </c>
+      <c r="BM14">
+        <v>351.01841000000002</v>
+      </c>
+      <c r="BN14">
+        <v>16.978300000000001</v>
+      </c>
+      <c r="BO14">
+        <v>2182.8274999999999</v>
+      </c>
+      <c r="BP14">
+        <v>605.63541999999995</v>
+      </c>
+      <c r="BQ14">
+        <v>24.6251</v>
+      </c>
+      <c r="BR14">
+        <v>2493.2746999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/distributions.xlsx
+++ b/data/distributions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
   <si>
     <t>repository</t>
   </si>
@@ -270,6 +270,9 @@
   <si>
     <t>jquery</t>
   </si>
+  <si>
+    <t>linux</t>
+  </si>
 </sst>
 </file>
 
@@ -331,9 +334,99 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1190">
+  <cellStyleXfs count="1280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1528,7 +1621,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1190">
+  <cellStyles count="1280">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2123,6 +2216,51 @@
     <cellStyle name="Followed Hyperlink" xfId="1185" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1187" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1261" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1263" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1265" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1267" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1269" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1271" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1279" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2717,6 +2855,51 @@
     <cellStyle name="Hyperlink" xfId="1184" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1186" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1278" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -3047,10 +3230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL14"/>
+  <dimension ref="A1:BL15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5837,6 +6020,200 @@
         <v>1873.4887871999999</v>
       </c>
     </row>
+    <row r="15" spans="1:64">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>10.423507008</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>28.187174905999999</v>
+      </c>
+      <c r="E15">
+        <v>15.875667057999999</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>97.207763177999993</v>
+      </c>
+      <c r="H15">
+        <v>1.9590868907000001</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>15.329810344</v>
+      </c>
+      <c r="K15">
+        <v>15.972520537999999</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>97.602621710999998</v>
+      </c>
+      <c r="N15">
+        <v>1.962577182</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>15.332652951</v>
+      </c>
+      <c r="Q15">
+        <v>780.00104071999999</v>
+      </c>
+      <c r="R15">
+        <v>43</v>
+      </c>
+      <c r="S15">
+        <v>32004.595290000001</v>
+      </c>
+      <c r="T15">
+        <v>353.20413631000002</v>
+      </c>
+      <c r="U15">
+        <v>21</v>
+      </c>
+      <c r="V15">
+        <v>3344.6752196000002</v>
+      </c>
+      <c r="W15">
+        <v>1133.205177</v>
+      </c>
+      <c r="X15">
+        <v>75</v>
+      </c>
+      <c r="Y15">
+        <v>32425.775549000002</v>
+      </c>
+      <c r="Z15">
+        <v>91.420970406999999</v>
+      </c>
+      <c r="AA15">
+        <v>19.333333332999999</v>
+      </c>
+      <c r="AB15">
+        <v>1447.6323824000001</v>
+      </c>
+      <c r="AC15">
+        <v>816.22419787000001</v>
+      </c>
+      <c r="AD15">
+        <v>44</v>
+      </c>
+      <c r="AE15">
+        <v>32095.291674</v>
+      </c>
+      <c r="AF15">
+        <v>389.42729345999999</v>
+      </c>
+      <c r="AG15">
+        <v>22</v>
+      </c>
+      <c r="AH15">
+        <v>3698.3553732</v>
+      </c>
+      <c r="AI15">
+        <v>1205.6514913000001</v>
+      </c>
+      <c r="AJ15">
+        <v>76</v>
+      </c>
+      <c r="AK15">
+        <v>32680.883344000002</v>
+      </c>
+      <c r="AL15">
+        <v>93.104593175000005</v>
+      </c>
+      <c r="AM15">
+        <v>19.714285713999999</v>
+      </c>
+      <c r="AN15">
+        <v>1448.9360333</v>
+      </c>
+      <c r="AO15">
+        <v>88.672261465000005</v>
+      </c>
+      <c r="AP15">
+        <v>15</v>
+      </c>
+      <c r="AQ15">
+        <v>379.75109744999997</v>
+      </c>
+      <c r="AR15">
+        <v>8.1168459388999992</v>
+      </c>
+      <c r="AS15">
+        <v>4</v>
+      </c>
+      <c r="AT15">
+        <v>101.5879132</v>
+      </c>
+      <c r="AU15">
+        <v>108.17521755</v>
+      </c>
+      <c r="AV15">
+        <v>16</v>
+      </c>
+      <c r="AW15">
+        <v>544.53312891999997</v>
+      </c>
+      <c r="AX15">
+        <v>8.6401129957999991</v>
+      </c>
+      <c r="AY15">
+        <v>4</v>
+      </c>
+      <c r="AZ15">
+        <v>101.66251454</v>
+      </c>
+      <c r="BA15">
+        <v>3.6336440734000002</v>
+      </c>
+      <c r="BB15">
+        <v>2</v>
+      </c>
+      <c r="BC15">
+        <v>5.8872820118</v>
+      </c>
+      <c r="BD15">
+        <v>1.0288301852999999</v>
+      </c>
+      <c r="BE15">
+        <v>1</v>
+      </c>
+      <c r="BF15">
+        <v>0.17772695660000001</v>
+      </c>
+      <c r="BG15">
+        <v>77.633807249</v>
+      </c>
+      <c r="BH15">
+        <v>4.6111111099999998E-2</v>
+      </c>
+      <c r="BI15">
+        <v>238.61889909999999</v>
+      </c>
+      <c r="BJ15">
+        <v>520.93002041</v>
+      </c>
+      <c r="BK15">
+        <v>28.839444444000002</v>
+      </c>
+      <c r="BL15">
+        <v>2816.5400500000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5850,10 +6227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR14"/>
+  <dimension ref="A1:BR15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BP15" sqref="BP15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8936,6 +9313,220 @@
         <v>2493.2746999999999</v>
       </c>
     </row>
+    <row r="15" spans="1:70">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>45161</v>
+      </c>
+      <c r="C15">
+        <v>470736</v>
+      </c>
+      <c r="D15">
+        <v>33486</v>
+      </c>
+      <c r="E15">
+        <v>459061</v>
+      </c>
+      <c r="F15" s="1">
+        <f>D15/B15</f>
+        <v>0.74148048094594898</v>
+      </c>
+      <c r="G15" s="1">
+        <f>E15/C15</f>
+        <v>0.97519841269841268</v>
+      </c>
+      <c r="H15">
+        <v>13.709042999999999</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>32.090164000000001</v>
+      </c>
+      <c r="K15">
+        <v>20.459505</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>111.24777</v>
+      </c>
+      <c r="N15">
+        <v>1.6908654999999999</v>
+      </c>
+      <c r="O15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P15">
+        <v>5.4785145000000002</v>
+      </c>
+      <c r="Q15">
+        <v>20.590126999999999</v>
+      </c>
+      <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <v>111.70769</v>
+      </c>
+      <c r="T15">
+        <v>1.6955727</v>
+      </c>
+      <c r="U15">
+        <v>1.1069</v>
+      </c>
+      <c r="V15">
+        <v>5.4894619000000002</v>
+      </c>
+      <c r="W15">
+        <v>1028.6347000000001</v>
+      </c>
+      <c r="X15">
+        <v>90</v>
+      </c>
+      <c r="Y15">
+        <v>37156.766000000003</v>
+      </c>
+      <c r="Z15">
+        <v>452.4753</v>
+      </c>
+      <c r="AA15">
+        <v>42</v>
+      </c>
+      <c r="AB15">
+        <v>3652.5558999999998</v>
+      </c>
+      <c r="AC15">
+        <v>1481.11</v>
+      </c>
+      <c r="AD15">
+        <v>153</v>
+      </c>
+      <c r="AE15">
+        <v>37618.053999999996</v>
+      </c>
+      <c r="AF15">
+        <v>76.104384999999994</v>
+      </c>
+      <c r="AG15">
+        <v>25</v>
+      </c>
+      <c r="AH15">
+        <v>620.51526999999999</v>
+      </c>
+      <c r="AI15">
+        <v>1077.4871000000001</v>
+      </c>
+      <c r="AJ15">
+        <v>92</v>
+      </c>
+      <c r="AK15">
+        <v>37261.79</v>
+      </c>
+      <c r="AL15">
+        <v>501.32778000000002</v>
+      </c>
+      <c r="AM15">
+        <v>44</v>
+      </c>
+      <c r="AN15">
+        <v>4085.3816000000002</v>
+      </c>
+      <c r="AO15">
+        <v>1578.8149000000001</v>
+      </c>
+      <c r="AP15">
+        <v>157</v>
+      </c>
+      <c r="AQ15">
+        <v>37913.688999999998</v>
+      </c>
+      <c r="AR15">
+        <v>78.375007999999994</v>
+      </c>
+      <c r="AS15">
+        <v>25.881900000000002</v>
+      </c>
+      <c r="AT15">
+        <v>624.66002000000003</v>
+      </c>
+      <c r="AU15">
+        <v>116.4042</v>
+      </c>
+      <c r="AV15">
+        <v>26</v>
+      </c>
+      <c r="AW15">
+        <v>424.76956000000001</v>
+      </c>
+      <c r="AX15">
+        <v>7.7628823999999996</v>
+      </c>
+      <c r="AY15">
+        <v>4.3603300000000003</v>
+      </c>
+      <c r="AZ15">
+        <v>53.197885999999997</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>142.70692</v>
+      </c>
+      <c r="BB15">
+        <v>28.5</v>
+      </c>
+      <c r="BC15">
+        <v>619.83887000000004</v>
+      </c>
+      <c r="BD15">
+        <v>8.4685881999999992</v>
+      </c>
+      <c r="BE15">
+        <v>4.7857099999999999</v>
+      </c>
+      <c r="BF15">
+        <v>53.393214999999998</v>
+      </c>
+      <c r="BG15">
+        <v>4.5518723999999997</v>
+      </c>
+      <c r="BH15">
+        <v>3</v>
+      </c>
+      <c r="BI15">
+        <v>6.5941847999999998</v>
+      </c>
+      <c r="BJ15">
+        <v>1.0388819</v>
+      </c>
+      <c r="BK15">
+        <v>1</v>
+      </c>
+      <c r="BL15">
+        <v>0.20544879999999999</v>
+      </c>
+      <c r="BM15">
+        <v>104.70108</v>
+      </c>
+      <c r="BN15">
+        <v>1.69736</v>
+      </c>
+      <c r="BO15">
+        <v>271.95123000000001</v>
+      </c>
+      <c r="BP15">
+        <v>702.55391999999995</v>
+      </c>
+      <c r="BQ15">
+        <v>144.94900000000001</v>
+      </c>
+      <c r="BR15">
+        <v>3251.3391000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/distributions.xlsx
+++ b/data/distributions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
   <si>
     <t>repository</t>
   </si>
@@ -273,6 +273,12 @@
   <si>
     <t>linux</t>
   </si>
+  <si>
+    <t>meteor</t>
+  </si>
+  <si>
+    <t>mongo</t>
+  </si>
 </sst>
 </file>
 
@@ -334,9 +340,95 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1280">
+  <cellStyleXfs count="1366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1621,7 +1713,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1280">
+  <cellStyles count="1366">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2261,6 +2353,49 @@
     <cellStyle name="Followed Hyperlink" xfId="1275" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1277" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1365" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2900,6 +3035,49 @@
     <cellStyle name="Hyperlink" xfId="1274" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1276" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1312" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1330" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1332" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1364" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -3230,10 +3408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL15"/>
+  <dimension ref="A1:BL17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6214,6 +6392,205 @@
         <v>2816.5400500000001</v>
       </c>
     </row>
+    <row r="16" spans="1:64">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>6.5857209958</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>12.764874228</v>
+      </c>
+      <c r="E16">
+        <v>11.006106152999999</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>23.180751436000001</v>
+      </c>
+      <c r="H16">
+        <v>2.2767345466000002</v>
+      </c>
+      <c r="I16">
+        <v>1.25</v>
+      </c>
+      <c r="J16">
+        <v>4.381577246</v>
+      </c>
+      <c r="K16">
+        <v>11.300610615</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>24.508491788000001</v>
+      </c>
+      <c r="N16">
+        <v>2.2973586785000002</v>
+      </c>
+      <c r="O16">
+        <v>1.2857142856999999</v>
+      </c>
+      <c r="P16">
+        <v>4.3901631648999997</v>
+      </c>
+      <c r="Q16">
+        <v>518.22404885000003</v>
+      </c>
+      <c r="R16">
+        <v>55</v>
+      </c>
+      <c r="S16">
+        <v>5507.3987408000003</v>
+      </c>
+      <c r="T16">
+        <v>257.68670737000002</v>
+      </c>
+      <c r="U16">
+        <v>18</v>
+      </c>
+      <c r="V16">
+        <v>3839.9954037000002</v>
+      </c>
+      <c r="W16">
+        <v>775.91075622000005</v>
+      </c>
+      <c r="X16">
+        <v>83</v>
+      </c>
+      <c r="Y16">
+        <v>8621.6500673999999</v>
+      </c>
+      <c r="Z16">
+        <v>118.89854628000001</v>
+      </c>
+      <c r="AA16">
+        <v>23</v>
+      </c>
+      <c r="AB16">
+        <v>892.62882586000001</v>
+      </c>
+      <c r="AC16">
+        <v>602.24518552999996</v>
+      </c>
+      <c r="AD16">
+        <v>59</v>
+      </c>
+      <c r="AE16">
+        <v>5635.2033867999999</v>
+      </c>
+      <c r="AF16">
+        <v>341.70784406000001</v>
+      </c>
+      <c r="AG16">
+        <v>24</v>
+      </c>
+      <c r="AH16">
+        <v>3953.8737402000002</v>
+      </c>
+      <c r="AI16">
+        <v>943.95302959000003</v>
+      </c>
+      <c r="AJ16">
+        <v>89</v>
+      </c>
+      <c r="AK16">
+        <v>8885.7249694999991</v>
+      </c>
+      <c r="AL16">
+        <v>129.64298144</v>
+      </c>
+      <c r="AM16">
+        <v>26</v>
+      </c>
+      <c r="AN16">
+        <v>911.26569864999999</v>
+      </c>
+      <c r="AO16">
+        <v>40.785345233000001</v>
+      </c>
+      <c r="AP16">
+        <v>13</v>
+      </c>
+      <c r="AQ16">
+        <v>101.87232376</v>
+      </c>
+      <c r="AR16">
+        <v>7.1580261599000004</v>
+      </c>
+      <c r="AS16">
+        <v>3.5</v>
+      </c>
+      <c r="AT16">
+        <v>18.439412949000001</v>
+      </c>
+      <c r="AU16">
+        <v>59.341944574999999</v>
+      </c>
+      <c r="AV16">
+        <v>15</v>
+      </c>
+      <c r="AW16">
+        <v>161.49078900999999</v>
+      </c>
+      <c r="AX16">
+        <v>8.3649410834999998</v>
+      </c>
+      <c r="AY16">
+        <v>4.3333333332999997</v>
+      </c>
+      <c r="AZ16">
+        <v>19.375773058</v>
+      </c>
+      <c r="BA16">
+        <v>1.6759041804000001</v>
+      </c>
+      <c r="BB16">
+        <v>1</v>
+      </c>
+      <c r="BC16">
+        <v>1.1028785567999999</v>
+      </c>
+      <c r="BD16">
+        <v>1.4927195867</v>
+      </c>
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BF16">
+        <v>0.88591133190000004</v>
+      </c>
+      <c r="BG16">
+        <v>27.498984395000001</v>
+      </c>
+      <c r="BH16">
+        <v>0.83777777779999996</v>
+      </c>
+      <c r="BI16">
+        <v>94.967253451000005</v>
+      </c>
+      <c r="BJ16">
+        <v>121.05670685</v>
+      </c>
+      <c r="BK16">
+        <v>4.9958333333000002</v>
+      </c>
+      <c r="BL16">
+        <v>453.59451030999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6227,10 +6604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR15"/>
+  <dimension ref="A1:BR17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9527,6 +9904,231 @@
         <v>3251.3391000000001</v>
       </c>
     </row>
+    <row r="16" spans="1:70">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <v>2129</v>
+      </c>
+      <c r="C16">
+        <v>14021</v>
+      </c>
+      <c r="D16">
+        <v>1550</v>
+      </c>
+      <c r="E16">
+        <v>13442</v>
+      </c>
+      <c r="F16" s="1">
+        <f>D16/B16</f>
+        <v>0.72804133395960546</v>
+      </c>
+      <c r="G16" s="1">
+        <f>E16/C16</f>
+        <v>0.95870479994294278</v>
+      </c>
+      <c r="H16">
+        <v>8.6722581000000005</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>14.416283999999999</v>
+      </c>
+      <c r="K16">
+        <v>13.980645000000001</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>26.286221000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.9904309</v>
+      </c>
+      <c r="O16">
+        <v>1.2928599999999999</v>
+      </c>
+      <c r="P16">
+        <v>3.3750605999999999</v>
+      </c>
+      <c r="Q16">
+        <v>14.385161</v>
+      </c>
+      <c r="R16">
+        <v>7</v>
+      </c>
+      <c r="S16">
+        <v>27.847795999999999</v>
+      </c>
+      <c r="T16">
+        <v>2.0187591</v>
+      </c>
+      <c r="U16">
+        <v>1.3333299999999999</v>
+      </c>
+      <c r="V16">
+        <v>3.3927144999999999</v>
+      </c>
+      <c r="W16">
+        <v>676.11613</v>
+      </c>
+      <c r="X16">
+        <v>97</v>
+      </c>
+      <c r="Y16">
+        <v>6437.7231000000002</v>
+      </c>
+      <c r="Z16">
+        <v>329.51483999999999</v>
+      </c>
+      <c r="AA16">
+        <v>35</v>
+      </c>
+      <c r="AB16">
+        <v>4485.3063000000002</v>
+      </c>
+      <c r="AC16">
+        <v>1005.631</v>
+      </c>
+      <c r="AD16">
+        <v>154</v>
+      </c>
+      <c r="AE16">
+        <v>10077.543</v>
+      </c>
+      <c r="AF16">
+        <v>103.19291</v>
+      </c>
+      <c r="AG16">
+        <v>26.5</v>
+      </c>
+      <c r="AH16">
+        <v>852.67912000000001</v>
+      </c>
+      <c r="AI16">
+        <v>791.52323000000001</v>
+      </c>
+      <c r="AJ16">
+        <v>107.5</v>
+      </c>
+      <c r="AK16">
+        <v>6584.8742000000002</v>
+      </c>
+      <c r="AL16">
+        <v>444.92194000000001</v>
+      </c>
+      <c r="AM16">
+        <v>50.5</v>
+      </c>
+      <c r="AN16">
+        <v>4617.0411999999997</v>
+      </c>
+      <c r="AO16">
+        <v>1236.4452000000001</v>
+      </c>
+      <c r="AP16">
+        <v>172.5</v>
+      </c>
+      <c r="AQ16">
+        <v>10382.083000000001</v>
+      </c>
+      <c r="AR16">
+        <v>117.95090999999999</v>
+      </c>
+      <c r="AS16">
+        <v>31.125</v>
+      </c>
+      <c r="AT16">
+        <v>879.57470000000001</v>
+      </c>
+      <c r="AU16">
+        <v>52.877419000000003</v>
+      </c>
+      <c r="AV16">
+        <v>20</v>
+      </c>
+      <c r="AW16">
+        <v>115.89597999999999</v>
+      </c>
+      <c r="AX16">
+        <v>6.6886694999999996</v>
+      </c>
+      <c r="AY16">
+        <v>3.6</v>
+      </c>
+      <c r="AZ16">
+        <v>13.379868999999999</v>
+      </c>
+      <c r="BA16">
+        <v>78.365806000000006</v>
+      </c>
+      <c r="BB16">
+        <v>26</v>
+      </c>
+      <c r="BC16">
+        <v>184.95555999999999</v>
+      </c>
+      <c r="BD16">
+        <v>8.3464255000000005</v>
+      </c>
+      <c r="BE16">
+        <v>4.8416699999999997</v>
+      </c>
+      <c r="BF16">
+        <v>15.115363</v>
+      </c>
+      <c r="BG16">
+        <v>1.9283870999999999</v>
+      </c>
+      <c r="BH16">
+        <v>2</v>
+      </c>
+      <c r="BI16">
+        <v>1.1985171999999999</v>
+      </c>
+      <c r="BJ16">
+        <v>1.6767742000000001</v>
+      </c>
+      <c r="BK16">
+        <v>1</v>
+      </c>
+      <c r="BL16">
+        <v>0.97650380000000003</v>
+      </c>
+      <c r="BM16">
+        <v>37.771186</v>
+      </c>
+      <c r="BN16">
+        <v>4.20486</v>
+      </c>
+      <c r="BO16">
+        <v>109.55209000000001</v>
+      </c>
+      <c r="BP16">
+        <v>166.27724000000001</v>
+      </c>
+      <c r="BQ16">
+        <v>24.943100000000001</v>
+      </c>
+      <c r="BR16">
+        <v>524.52876000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>4842</v>
+      </c>
+      <c r="C17">
+        <v>29567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/distributions.xlsx
+++ b/data/distributions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="all branch segments" sheetId="1" r:id="rId1"/>
@@ -340,9 +340,93 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1366">
+  <cellStyleXfs count="1450">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1713,7 +1797,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1366">
+  <cellStyles count="1450">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2396,6 +2480,48 @@
     <cellStyle name="Followed Hyperlink" xfId="1361" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1363" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1431" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1449" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -3078,6 +3204,48 @@
     <cellStyle name="Hyperlink" xfId="1360" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1362" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1436" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1438" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1440" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1442" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1444" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1446" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1448" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -3410,8 +3578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6586,9 +6754,198 @@
         <v>453.59451030999998</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:64">
       <c r="A17" t="s">
         <v>85</v>
+      </c>
+      <c r="B17">
+        <v>6.1063610078000004</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>41.213898899999997</v>
+      </c>
+      <c r="E17">
+        <v>16.728418008999999</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>179.77137002000001</v>
+      </c>
+      <c r="H17">
+        <v>3.4361355008999999</v>
+      </c>
+      <c r="I17">
+        <v>1.5</v>
+      </c>
+      <c r="J17">
+        <v>56.255547256</v>
+      </c>
+      <c r="K17">
+        <v>17.814332919999998</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>207.36817306</v>
+      </c>
+      <c r="N17">
+        <v>3.4457221601999999</v>
+      </c>
+      <c r="O17">
+        <v>1.5</v>
+      </c>
+      <c r="P17">
+        <v>9871.6948933000003</v>
+      </c>
+      <c r="Q17">
+        <v>1253.7488641</v>
+      </c>
+      <c r="R17">
+        <v>27</v>
+      </c>
+      <c r="S17">
+        <v>25462.046155</v>
+      </c>
+      <c r="T17">
+        <v>543.30338702999995</v>
+      </c>
+      <c r="U17">
+        <v>8</v>
+      </c>
+      <c r="V17">
+        <v>13521.252248999999</v>
+      </c>
+      <c r="W17">
+        <v>1797.0522510999999</v>
+      </c>
+      <c r="X17">
+        <v>38</v>
+      </c>
+      <c r="Y17">
+        <v>31406.672713</v>
+      </c>
+      <c r="Z17">
+        <v>259.69463179000002</v>
+      </c>
+      <c r="AA17">
+        <v>20.645833332999999</v>
+      </c>
+      <c r="AB17">
+        <v>9870.6139739999999</v>
+      </c>
+      <c r="AC17">
+        <v>1645.2866584000001</v>
+      </c>
+      <c r="AD17">
+        <v>27</v>
+      </c>
+      <c r="AE17">
+        <v>31907.324973999999</v>
+      </c>
+      <c r="AF17">
+        <v>934.84118133000004</v>
+      </c>
+      <c r="AG17">
+        <v>8</v>
+      </c>
+      <c r="AH17">
+        <v>22480.307658000002</v>
+      </c>
+      <c r="AI17">
+        <v>2580.1278397000001</v>
+      </c>
+      <c r="AJ17">
+        <v>40</v>
+      </c>
+      <c r="AK17">
+        <v>48692.732683000002</v>
+      </c>
+      <c r="AL17">
+        <v>264.36626538000002</v>
+      </c>
+      <c r="AM17">
+        <v>21.291666667000001</v>
+      </c>
+      <c r="AN17">
+        <v>9871.6948933000003</v>
+      </c>
+      <c r="AO17">
+        <v>61.306691450000002</v>
+      </c>
+      <c r="AP17">
+        <v>7</v>
+      </c>
+      <c r="AQ17">
+        <v>606.94437913000002</v>
+      </c>
+      <c r="AR17">
+        <v>9.0691639820999992</v>
+      </c>
+      <c r="AS17">
+        <v>4</v>
+      </c>
+      <c r="AT17">
+        <v>60.254631531000001</v>
+      </c>
+      <c r="AU17">
+        <v>79.317430814000005</v>
+      </c>
+      <c r="AV17">
+        <v>8</v>
+      </c>
+      <c r="AW17">
+        <v>905.06709749000004</v>
+      </c>
+      <c r="AX17">
+        <v>9.4354850746000007</v>
+      </c>
+      <c r="AY17">
+        <v>4</v>
+      </c>
+      <c r="AZ17">
+        <v>60.781156152999998</v>
+      </c>
+      <c r="BA17">
+        <v>1.6652209831</v>
+      </c>
+      <c r="BB17">
+        <v>1</v>
+      </c>
+      <c r="BC17">
+        <v>2.9570471606000002</v>
+      </c>
+      <c r="BD17">
+        <v>1.5890128046000001</v>
+      </c>
+      <c r="BE17">
+        <v>1</v>
+      </c>
+      <c r="BF17">
+        <v>2.1670637156999999</v>
+      </c>
+      <c r="BG17">
+        <v>28.473853778999999</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>412.18414545000002</v>
+      </c>
+      <c r="BJ17">
+        <v>70.569963857999994</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>796.77003571</v>
       </c>
     </row>
   </sheetData>
@@ -6606,8 +6963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BR17" sqref="BR17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10118,7 +10475,7 @@
         <v>524.52876000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:70">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -10127,6 +10484,209 @@
       </c>
       <c r="C17">
         <v>29567</v>
+      </c>
+      <c r="D17">
+        <v>2148</v>
+      </c>
+      <c r="E17">
+        <v>26873</v>
+      </c>
+      <c r="F17" s="1">
+        <f>D17/B17</f>
+        <v>0.44361833952912022</v>
+      </c>
+      <c r="G17" s="1">
+        <f>E17/C17</f>
+        <v>0.90888490546893497</v>
+      </c>
+      <c r="H17">
+        <v>12.510707999999999</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>61.28763</v>
+      </c>
+      <c r="K17">
+        <v>32.44041</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>256.34733</v>
+      </c>
+      <c r="N17">
+        <v>2.4770800999999998</v>
+      </c>
+      <c r="O17">
+        <v>1.5</v>
+      </c>
+      <c r="P17">
+        <v>20.558260000000001</v>
+      </c>
+      <c r="Q17">
+        <v>34.888267999999997</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>299.53838999999999</v>
+      </c>
+      <c r="T17">
+        <v>2.4986902999999998</v>
+      </c>
+      <c r="U17">
+        <v>1.5</v>
+      </c>
+      <c r="V17">
+        <v>20.560106999999999</v>
+      </c>
+      <c r="W17">
+        <v>2763.1224000000002</v>
+      </c>
+      <c r="X17">
+        <v>83.5</v>
+      </c>
+      <c r="Y17">
+        <v>38179.4</v>
+      </c>
+      <c r="Z17">
+        <v>883.05354</v>
+      </c>
+      <c r="AA17">
+        <v>26</v>
+      </c>
+      <c r="AB17">
+        <v>14369.853999999999</v>
+      </c>
+      <c r="AC17">
+        <v>3646.1759999999999</v>
+      </c>
+      <c r="AD17">
+        <v>115</v>
+      </c>
+      <c r="AE17">
+        <v>44849.294000000002</v>
+      </c>
+      <c r="AF17">
+        <v>180.67989</v>
+      </c>
+      <c r="AG17">
+        <v>26.666699999999999</v>
+      </c>
+      <c r="AH17">
+        <v>3635.2029000000002</v>
+      </c>
+      <c r="AI17">
+        <v>3645.723</v>
+      </c>
+      <c r="AJ17">
+        <v>87</v>
+      </c>
+      <c r="AK17">
+        <v>47836.14</v>
+      </c>
+      <c r="AL17">
+        <v>1765.6541</v>
+      </c>
+      <c r="AM17">
+        <v>29</v>
+      </c>
+      <c r="AN17">
+        <v>30540.364000000001</v>
+      </c>
+      <c r="AO17">
+        <v>5411.3770999999997</v>
+      </c>
+      <c r="AP17">
+        <v>122.5</v>
+      </c>
+      <c r="AQ17">
+        <v>71590.228000000003</v>
+      </c>
+      <c r="AR17">
+        <v>191.21064000000001</v>
+      </c>
+      <c r="AS17">
+        <v>28.291699999999999</v>
+      </c>
+      <c r="AT17">
+        <v>3642.0351000000001</v>
+      </c>
+      <c r="AU17">
+        <v>125.62244</v>
+      </c>
+      <c r="AV17">
+        <v>19</v>
+      </c>
+      <c r="AW17">
+        <v>903.35491999999999</v>
+      </c>
+      <c r="AX17">
+        <v>7.8691304000000004</v>
+      </c>
+      <c r="AY17">
+        <v>4.4772699999999999</v>
+      </c>
+      <c r="AZ17">
+        <v>32.478695999999999</v>
+      </c>
+      <c r="BA17">
+        <v>166.22207</v>
+      </c>
+      <c r="BB17">
+        <v>21</v>
+      </c>
+      <c r="BC17">
+        <v>1351.3996</v>
+      </c>
+      <c r="BD17">
+        <v>8.6948877000000007</v>
+      </c>
+      <c r="BE17">
+        <v>5</v>
+      </c>
+      <c r="BF17">
+        <v>34.643352999999998</v>
+      </c>
+      <c r="BG17">
+        <v>2.4995345000000002</v>
+      </c>
+      <c r="BH17">
+        <v>1</v>
+      </c>
+      <c r="BI17">
+        <v>4.2970186000000004</v>
+      </c>
+      <c r="BJ17">
+        <v>2.3277467000000001</v>
+      </c>
+      <c r="BK17">
+        <v>1</v>
+      </c>
+      <c r="BL17">
+        <v>3.0995940000000002</v>
+      </c>
+      <c r="BM17">
+        <v>64.185474999999997</v>
+      </c>
+      <c r="BN17">
+        <v>1.7694399999999999</v>
+      </c>
+      <c r="BO17">
+        <v>617.07645000000002</v>
+      </c>
+      <c r="BP17">
+        <v>159.07810000000001</v>
+      </c>
+      <c r="BQ17">
+        <v>2.49708</v>
+      </c>
+      <c r="BR17">
+        <v>1190.521</v>
       </c>
     </row>
   </sheetData>

--- a/data/distributions.xlsx
+++ b/data/distributions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all branch segments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
   <si>
     <t>repository</t>
   </si>
@@ -279,6 +279,9 @@
   <si>
     <t>mongo</t>
   </si>
+  <si>
+    <t>mono</t>
+  </si>
 </sst>
 </file>
 
@@ -340,9 +343,93 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1450">
+  <cellStyleXfs count="1534">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1797,7 +1884,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1450">
+  <cellStyles count="1534">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2522,6 +2609,48 @@
     <cellStyle name="Followed Hyperlink" xfId="1445" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1447" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1533" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -3246,6 +3375,48 @@
     <cellStyle name="Hyperlink" xfId="1444" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1446" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1448" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1450" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1452" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1454" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1456" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1458" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1498" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1500" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1502" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1504" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1506" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1508" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1510" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1512" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1514" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1526" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1528" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1532" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -3576,10 +3747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL17"/>
+  <dimension ref="A1:BL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6948,6 +7119,200 @@
         <v>796.77003571</v>
       </c>
     </row>
+    <row r="18" spans="1:64">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <v>27.418149465999999</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>295.11102133000003</v>
+      </c>
+      <c r="E18">
+        <v>92.893492628000004</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>660.30949034000002</v>
+      </c>
+      <c r="H18">
+        <v>8.5349560391000008</v>
+      </c>
+      <c r="I18">
+        <v>1.9112394958000001</v>
+      </c>
+      <c r="J18">
+        <v>102.13448304000001</v>
+      </c>
+      <c r="K18">
+        <v>94.520589731000001</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>669.03149786999995</v>
+      </c>
+      <c r="N18">
+        <v>8.5635596986000007</v>
+      </c>
+      <c r="O18">
+        <v>1.9356175739000001</v>
+      </c>
+      <c r="P18">
+        <v>102.13730257</v>
+      </c>
+      <c r="Q18">
+        <v>4400.8378241</v>
+      </c>
+      <c r="R18">
+        <v>107</v>
+      </c>
+      <c r="S18">
+        <v>41397.642784000003</v>
+      </c>
+      <c r="T18">
+        <v>5711.3919674999997</v>
+      </c>
+      <c r="U18">
+        <v>31</v>
+      </c>
+      <c r="V18">
+        <v>102154.39165999999</v>
+      </c>
+      <c r="W18">
+        <v>10112.229792</v>
+      </c>
+      <c r="X18">
+        <v>162.5</v>
+      </c>
+      <c r="Y18">
+        <v>112517.47315000001</v>
+      </c>
+      <c r="Z18">
+        <v>1017.3198858</v>
+      </c>
+      <c r="AA18">
+        <v>41</v>
+      </c>
+      <c r="AB18">
+        <v>14443.462729999999</v>
+      </c>
+      <c r="AC18">
+        <v>4937.8820538999998</v>
+      </c>
+      <c r="AD18">
+        <v>111.5</v>
+      </c>
+      <c r="AE18">
+        <v>52128.123497</v>
+      </c>
+      <c r="AF18">
+        <v>6248.8319775999998</v>
+      </c>
+      <c r="AG18">
+        <v>35</v>
+      </c>
+      <c r="AH18">
+        <v>103915.69942</v>
+      </c>
+      <c r="AI18">
+        <v>11186.714032</v>
+      </c>
+      <c r="AJ18">
+        <v>170.5</v>
+      </c>
+      <c r="AK18">
+        <v>124072.41981000001</v>
+      </c>
+      <c r="AL18">
+        <v>1029.507842</v>
+      </c>
+      <c r="AM18">
+        <v>42.5</v>
+      </c>
+      <c r="AN18">
+        <v>14446.081425</v>
+      </c>
+      <c r="AO18">
+        <v>403.34977122999999</v>
+      </c>
+      <c r="AP18">
+        <v>22</v>
+      </c>
+      <c r="AQ18">
+        <v>3756.4576299999999</v>
+      </c>
+      <c r="AR18">
+        <v>38.020132728999997</v>
+      </c>
+      <c r="AS18">
+        <v>5.4594155844000003</v>
+      </c>
+      <c r="AT18">
+        <v>812.00138002000006</v>
+      </c>
+      <c r="AU18">
+        <v>515.70615150000003</v>
+      </c>
+      <c r="AV18">
+        <v>24</v>
+      </c>
+      <c r="AW18">
+        <v>5332.3752931999998</v>
+      </c>
+      <c r="AX18">
+        <v>39.032293111999998</v>
+      </c>
+      <c r="AY18">
+        <v>6</v>
+      </c>
+      <c r="AZ18">
+        <v>813.12899115000005</v>
+      </c>
+      <c r="BA18">
+        <v>4.3566344687000003</v>
+      </c>
+      <c r="BB18">
+        <v>1</v>
+      </c>
+      <c r="BC18">
+        <v>6.5863321837999997</v>
+      </c>
+      <c r="BD18">
+        <v>4.2704626335000002</v>
+      </c>
+      <c r="BE18">
+        <v>1</v>
+      </c>
+      <c r="BF18">
+        <v>6.5011142967</v>
+      </c>
+      <c r="BG18">
+        <v>129.13877789</v>
+      </c>
+      <c r="BH18">
+        <v>2.0869444443999998</v>
+      </c>
+      <c r="BI18">
+        <v>1090.1638751</v>
+      </c>
+      <c r="BJ18">
+        <v>276.21877295000002</v>
+      </c>
+      <c r="BK18">
+        <v>4.1261111111000002</v>
+      </c>
+      <c r="BL18">
+        <v>1603.1335572999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6961,10 +7326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR17"/>
+  <dimension ref="A1:BR18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BR17" sqref="BR17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10689,6 +11054,220 @@
         <v>1190.521</v>
       </c>
     </row>
+    <row r="18" spans="1:70">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <v>3934</v>
+      </c>
+      <c r="C18">
+        <v>107863</v>
+      </c>
+      <c r="D18">
+        <v>2663</v>
+      </c>
+      <c r="E18">
+        <v>106592</v>
+      </c>
+      <c r="F18" s="1">
+        <f>D18/B18</f>
+        <v>0.67691916624300963</v>
+      </c>
+      <c r="G18" s="1">
+        <f>E18/C18</f>
+        <v>0.98821653393656772</v>
+      </c>
+      <c r="H18">
+        <v>40.027037</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>358.02307999999999</v>
+      </c>
+      <c r="K18">
+        <v>131.36613</v>
+      </c>
+      <c r="L18">
+        <v>18</v>
+      </c>
+      <c r="M18">
+        <v>792.63014999999996</v>
+      </c>
+      <c r="N18">
+        <v>6.7448430999999998</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>63.735455999999999</v>
+      </c>
+      <c r="Q18">
+        <v>133.76981000000001</v>
+      </c>
+      <c r="R18">
+        <v>18</v>
+      </c>
+      <c r="S18">
+        <v>803.24722999999994</v>
+      </c>
+      <c r="T18">
+        <v>6.7870986999999996</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>63.743313999999998</v>
+      </c>
+      <c r="W18">
+        <v>6462.3552</v>
+      </c>
+      <c r="X18">
+        <v>320</v>
+      </c>
+      <c r="Y18">
+        <v>50184.072999999997</v>
+      </c>
+      <c r="Z18">
+        <v>7725.1621999999998</v>
+      </c>
+      <c r="AA18">
+        <v>119</v>
+      </c>
+      <c r="AB18">
+        <v>123303.13</v>
+      </c>
+      <c r="AC18">
+        <v>14187.517</v>
+      </c>
+      <c r="AD18">
+        <v>509</v>
+      </c>
+      <c r="AE18">
+        <v>135835.25</v>
+      </c>
+      <c r="AF18">
+        <v>751.77747999999997</v>
+      </c>
+      <c r="AG18">
+        <v>55.8</v>
+      </c>
+      <c r="AH18">
+        <v>10282.063</v>
+      </c>
+      <c r="AI18">
+        <v>7255.7205999999996</v>
+      </c>
+      <c r="AJ18">
+        <v>341</v>
+      </c>
+      <c r="AK18">
+        <v>63227.447</v>
+      </c>
+      <c r="AL18">
+        <v>8519.1123000000007</v>
+      </c>
+      <c r="AM18">
+        <v>136</v>
+      </c>
+      <c r="AN18">
+        <v>125445.24</v>
+      </c>
+      <c r="AO18">
+        <v>15774.833000000001</v>
+      </c>
+      <c r="AP18">
+        <v>541</v>
+      </c>
+      <c r="AQ18">
+        <v>149921.70000000001</v>
+      </c>
+      <c r="AR18">
+        <v>769.78251999999998</v>
+      </c>
+      <c r="AS18">
+        <v>58.578899999999997</v>
+      </c>
+      <c r="AT18">
+        <v>10287.957</v>
+      </c>
+      <c r="AU18">
+        <v>582.85730000000001</v>
+      </c>
+      <c r="AV18">
+        <v>65</v>
+      </c>
+      <c r="AW18">
+        <v>4550.6584999999995</v>
+      </c>
+      <c r="AX18">
+        <v>43.162674000000003</v>
+      </c>
+      <c r="AY18">
+        <v>6.9345800000000004</v>
+      </c>
+      <c r="AZ18">
+        <v>966.40319</v>
+      </c>
+      <c r="BA18">
+        <v>748.83928000000003</v>
+      </c>
+      <c r="BB18">
+        <v>72</v>
+      </c>
+      <c r="BC18">
+        <v>6465.4479000000001</v>
+      </c>
+      <c r="BD18">
+        <v>44.657919999999997</v>
+      </c>
+      <c r="BE18">
+        <v>7.9719600000000002</v>
+      </c>
+      <c r="BF18">
+        <v>967.79465000000005</v>
+      </c>
+      <c r="BG18">
+        <v>5.9586931999999999</v>
+      </c>
+      <c r="BH18">
+        <v>3</v>
+      </c>
+      <c r="BI18">
+        <v>7.4929834</v>
+      </c>
+      <c r="BJ18">
+        <v>5.8313931999999999</v>
+      </c>
+      <c r="BK18">
+        <v>3</v>
+      </c>
+      <c r="BL18">
+        <v>7.4094405999999999</v>
+      </c>
+      <c r="BM18">
+        <v>190.77430000000001</v>
+      </c>
+      <c r="BN18">
+        <v>13.449400000000001</v>
+      </c>
+      <c r="BO18">
+        <v>1320.6574000000001</v>
+      </c>
+      <c r="BP18">
+        <v>408.05282</v>
+      </c>
+      <c r="BQ18">
+        <v>22.508900000000001</v>
+      </c>
+      <c r="BR18">
+        <v>1934.7644</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/distributions.xlsx
+++ b/data/distributions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
   <si>
     <t>repository</t>
   </si>
@@ -282,6 +282,9 @@
   <si>
     <t>mono</t>
   </si>
+  <si>
+    <t>node</t>
+  </si>
 </sst>
 </file>
 
@@ -343,9 +346,95 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1534">
+  <cellStyleXfs count="1620">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1884,7 +1973,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1534">
+  <cellStyles count="1620">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2651,6 +2740,49 @@
     <cellStyle name="Followed Hyperlink" xfId="1529" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1531" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1541" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1555" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1557" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1559" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1561" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1563" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1565" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1567" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1569" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1571" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1573" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1575" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1577" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1579" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1581" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1583" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1585" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1587" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1589" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1591" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1593" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1595" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1597" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1599" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1601" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1603" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1605" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1607" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1609" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1611" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1613" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1615" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1617" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1619" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -3417,6 +3549,49 @@
     <cellStyle name="Hyperlink" xfId="1528" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1530" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1532" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1534" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1536" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1538" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1540" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1554" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1556" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1558" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1560" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1562" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1564" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1566" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1568" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1570" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1574" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1576" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1578" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1580" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1582" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1584" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1586" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1588" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1590" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1592" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1594" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1596" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1598" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1600" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1602" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1604" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1606" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1608" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1610" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1612" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1614" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1616" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1618" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -3747,10 +3922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL18"/>
+  <dimension ref="A1:BL19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7313,6 +7488,200 @@
         <v>1603.1335572999999</v>
       </c>
     </row>
+    <row r="19" spans="1:64">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>13.1275</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>36.610882119999999</v>
+      </c>
+      <c r="E19">
+        <v>109.46125000000001</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>247.64433295000001</v>
+      </c>
+      <c r="H19">
+        <v>16.360311263</v>
+      </c>
+      <c r="I19">
+        <v>2.4642857142999999</v>
+      </c>
+      <c r="J19">
+        <v>81.823863024999994</v>
+      </c>
+      <c r="K19">
+        <v>112.455</v>
+      </c>
+      <c r="L19">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>253.86187738999999</v>
+      </c>
+      <c r="N19">
+        <v>16.471436098000002</v>
+      </c>
+      <c r="O19">
+        <v>2.5</v>
+      </c>
+      <c r="P19">
+        <v>81.827522645000002</v>
+      </c>
+      <c r="Q19">
+        <v>7047.6187499999996</v>
+      </c>
+      <c r="R19">
+        <v>227</v>
+      </c>
+      <c r="S19">
+        <v>30089.144237</v>
+      </c>
+      <c r="T19">
+        <v>2972.05375</v>
+      </c>
+      <c r="U19">
+        <v>53.5</v>
+      </c>
+      <c r="V19">
+        <v>10506.184447</v>
+      </c>
+      <c r="W19">
+        <v>10019.672500000001</v>
+      </c>
+      <c r="X19">
+        <v>322.5</v>
+      </c>
+      <c r="Y19">
+        <v>36344.189892000002</v>
+      </c>
+      <c r="Z19">
+        <v>955.24165055000003</v>
+      </c>
+      <c r="AA19">
+        <v>56.25</v>
+      </c>
+      <c r="AB19">
+        <v>5156.7950048000002</v>
+      </c>
+      <c r="AC19">
+        <v>8304.8624999999993</v>
+      </c>
+      <c r="AD19">
+        <v>241</v>
+      </c>
+      <c r="AE19">
+        <v>35043.169436999997</v>
+      </c>
+      <c r="AF19">
+        <v>4229.2974999999997</v>
+      </c>
+      <c r="AG19">
+        <v>63</v>
+      </c>
+      <c r="AH19">
+        <v>18403.052401000001</v>
+      </c>
+      <c r="AI19">
+        <v>12534.16</v>
+      </c>
+      <c r="AJ19">
+        <v>337.5</v>
+      </c>
+      <c r="AK19">
+        <v>49222.141739999999</v>
+      </c>
+      <c r="AL19">
+        <v>1019.1232406</v>
+      </c>
+      <c r="AM19">
+        <v>60.208333332999999</v>
+      </c>
+      <c r="AN19">
+        <v>5222.8870632999997</v>
+      </c>
+      <c r="AO19">
+        <v>638.43375000000003</v>
+      </c>
+      <c r="AP19">
+        <v>37</v>
+      </c>
+      <c r="AQ19">
+        <v>2254.4465423000001</v>
+      </c>
+      <c r="AR19">
+        <v>65.981360543999998</v>
+      </c>
+      <c r="AS19">
+        <v>6</v>
+      </c>
+      <c r="AT19">
+        <v>306.35601270000001</v>
+      </c>
+      <c r="AU19">
+        <v>796.74374999999998</v>
+      </c>
+      <c r="AV19">
+        <v>44</v>
+      </c>
+      <c r="AW19">
+        <v>3076.6329437999998</v>
+      </c>
+      <c r="AX19">
+        <v>69.611910808000005</v>
+      </c>
+      <c r="AY19">
+        <v>6.6871794871999999</v>
+      </c>
+      <c r="AZ19">
+        <v>310.14151643999998</v>
+      </c>
+      <c r="BA19">
+        <v>3.9237500000000001</v>
+      </c>
+      <c r="BB19">
+        <v>2</v>
+      </c>
+      <c r="BC19">
+        <v>4.9280618074999998</v>
+      </c>
+      <c r="BD19">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="BE19">
+        <v>1</v>
+      </c>
+      <c r="BF19">
+        <v>1.3292794024000001</v>
+      </c>
+      <c r="BG19">
+        <v>118.86288958</v>
+      </c>
+      <c r="BH19">
+        <v>22.069027777999999</v>
+      </c>
+      <c r="BI19">
+        <v>441.43870005000002</v>
+      </c>
+      <c r="BJ19">
+        <v>800.25839131999999</v>
+      </c>
+      <c r="BK19">
+        <v>75.510416667000001</v>
+      </c>
+      <c r="BL19">
+        <v>1916.7250147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7326,10 +7695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR18"/>
+  <dimension ref="A1:BR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11268,6 +11637,220 @@
         <v>1934.7644</v>
       </c>
     </row>
+    <row r="19" spans="1:70">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>800</v>
+      </c>
+      <c r="C19">
+        <v>10502</v>
+      </c>
+      <c r="D19">
+        <v>614</v>
+      </c>
+      <c r="E19">
+        <v>10316</v>
+      </c>
+      <c r="F19" s="1">
+        <f>D19/B19</f>
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="G19" s="1">
+        <f>E19/C19</f>
+        <v>0.98228908779280133</v>
+      </c>
+      <c r="H19">
+        <v>16.801303000000001</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>41.096348999999996</v>
+      </c>
+      <c r="K19">
+        <v>135.49349000000001</v>
+      </c>
+      <c r="L19">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <v>263.54705000000001</v>
+      </c>
+      <c r="N19">
+        <v>14.189330999999999</v>
+      </c>
+      <c r="O19">
+        <v>2.5</v>
+      </c>
+      <c r="P19">
+        <v>33.863495</v>
+      </c>
+      <c r="Q19">
+        <v>139.39413999999999</v>
+      </c>
+      <c r="R19">
+        <v>25.5</v>
+      </c>
+      <c r="S19">
+        <v>270.76621999999998</v>
+      </c>
+      <c r="T19">
+        <v>14.334118999999999</v>
+      </c>
+      <c r="U19">
+        <v>2.5</v>
+      </c>
+      <c r="V19">
+        <v>33.884239999999998</v>
+      </c>
+      <c r="W19">
+        <v>9015.6059000000005</v>
+      </c>
+      <c r="X19">
+        <v>543.5</v>
+      </c>
+      <c r="Y19">
+        <v>34041.591</v>
+      </c>
+      <c r="Z19">
+        <v>3714.9787999999999</v>
+      </c>
+      <c r="AA19">
+        <v>161</v>
+      </c>
+      <c r="AB19">
+        <v>11542.736999999999</v>
+      </c>
+      <c r="AC19">
+        <v>12730.584999999999</v>
+      </c>
+      <c r="AD19">
+        <v>768.5</v>
+      </c>
+      <c r="AE19">
+        <v>40805.826000000001</v>
+      </c>
+      <c r="AF19">
+        <v>920.25134000000003</v>
+      </c>
+      <c r="AG19">
+        <v>75.032200000000003</v>
+      </c>
+      <c r="AH19">
+        <v>3120.3600999999999</v>
+      </c>
+      <c r="AI19">
+        <v>10653.708000000001</v>
+      </c>
+      <c r="AJ19">
+        <v>592.5</v>
+      </c>
+      <c r="AK19">
+        <v>39652.485999999997</v>
+      </c>
+      <c r="AL19">
+        <v>5353.0814</v>
+      </c>
+      <c r="AM19">
+        <v>200.5</v>
+      </c>
+      <c r="AN19">
+        <v>20681.735000000001</v>
+      </c>
+      <c r="AO19">
+        <v>16006.79</v>
+      </c>
+      <c r="AP19">
+        <v>817.5</v>
+      </c>
+      <c r="AQ19">
+        <v>55507.6</v>
+      </c>
+      <c r="AR19">
+        <v>1003.4847</v>
+      </c>
+      <c r="AS19">
+        <v>85.232100000000003</v>
+      </c>
+      <c r="AT19">
+        <v>3261.1404000000002</v>
+      </c>
+      <c r="AU19">
+        <v>811.29966999999999</v>
+      </c>
+      <c r="AV19">
+        <v>95</v>
+      </c>
+      <c r="AW19">
+        <v>2539.7388999999998</v>
+      </c>
+      <c r="AX19">
+        <v>65.433368999999999</v>
+      </c>
+      <c r="AY19">
+        <v>8.5374300000000005</v>
+      </c>
+      <c r="AZ19">
+        <v>276.84237000000002</v>
+      </c>
+      <c r="BA19">
+        <v>1017.5667999999999</v>
+      </c>
+      <c r="BB19">
+        <v>107</v>
+      </c>
+      <c r="BC19">
+        <v>3475.9222</v>
+      </c>
+      <c r="BD19">
+        <v>70.163726999999994</v>
+      </c>
+      <c r="BE19">
+        <v>9.9411799999999992</v>
+      </c>
+      <c r="BF19">
+        <v>282.28275000000002</v>
+      </c>
+      <c r="BG19">
+        <v>4.8094463000000003</v>
+      </c>
+      <c r="BH19">
+        <v>3</v>
+      </c>
+      <c r="BI19">
+        <v>5.3174441999999997</v>
+      </c>
+      <c r="BJ19">
+        <v>2.2833876000000002</v>
+      </c>
+      <c r="BK19">
+        <v>2</v>
+      </c>
+      <c r="BL19">
+        <v>1.3854820000000001</v>
+      </c>
+      <c r="BM19">
+        <v>154.87020999999999</v>
+      </c>
+      <c r="BN19">
+        <v>50.007800000000003</v>
+      </c>
+      <c r="BO19">
+        <v>498.40804000000003</v>
+      </c>
+      <c r="BP19">
+        <v>1042.6819</v>
+      </c>
+      <c r="BQ19">
+        <v>188.828</v>
+      </c>
+      <c r="BR19">
+        <v>2129.645</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/distributions.xlsx
+++ b/data/distributions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
   <si>
     <t>repository</t>
   </si>
@@ -285,6 +285,9 @@
   <si>
     <t>node</t>
   </si>
+  <si>
+    <t>oh-my-zsh</t>
+  </si>
 </sst>
 </file>
 
@@ -346,9 +349,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1620">
+  <cellStyleXfs count="1712">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1973,7 +2068,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1620">
+  <cellStyles count="1712">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2783,6 +2878,52 @@
     <cellStyle name="Followed Hyperlink" xfId="1615" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1617" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1619" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1621" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1623" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1625" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1627" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1629" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1631" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1633" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1635" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1637" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1639" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1641" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1643" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1645" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1647" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1649" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1651" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1653" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1655" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1657" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1659" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1661" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1663" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1665" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1667" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1669" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1671" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1673" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1675" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1677" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1679" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1681" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1683" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1685" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1687" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1689" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1691" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1693" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1695" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1697" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1699" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1701" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1703" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1705" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1707" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1709" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1711" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -3592,6 +3733,52 @@
     <cellStyle name="Hyperlink" xfId="1614" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1616" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1618" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1620" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1622" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1624" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1626" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1628" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1630" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1632" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1634" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1636" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1638" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1640" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1642" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1644" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1646" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1648" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1650" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1652" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1654" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1656" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1658" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1660" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1662" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1664" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1666" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1668" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1670" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1672" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1674" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1676" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1678" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1680" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1682" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1684" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1686" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1688" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1690" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1692" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1694" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1696" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1698" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1700" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1702" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1704" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1706" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1708" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1710" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -3922,10 +4109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL19"/>
+  <dimension ref="A1:BL20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7682,6 +7869,200 @@
         <v>1916.7250147</v>
       </c>
     </row>
+    <row r="20" spans="1:64">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20">
+        <v>1.6985230235</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2.5029352315</v>
+      </c>
+      <c r="E20">
+        <v>1.5308427454</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.2365841739999999</v>
+      </c>
+      <c r="H20">
+        <v>1.0802202517999999</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1.0959604547999999</v>
+      </c>
+      <c r="K20">
+        <v>1.5543006081999999</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.278892983</v>
+      </c>
+      <c r="N20">
+        <v>1.0840847723</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1.0943185405</v>
+      </c>
+      <c r="Q20">
+        <v>30.605560382</v>
+      </c>
+      <c r="R20">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>116.9409919</v>
+      </c>
+      <c r="T20">
+        <v>5.2919200694999997</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>18.924240605000001</v>
+      </c>
+      <c r="W20">
+        <v>35.897480452000003</v>
+      </c>
+      <c r="X20">
+        <v>8</v>
+      </c>
+      <c r="Y20">
+        <v>120.96640533999999</v>
+      </c>
+      <c r="Z20">
+        <v>25.143926766</v>
+      </c>
+      <c r="AA20">
+        <v>6.7142857142999999</v>
+      </c>
+      <c r="AB20">
+        <v>103.34549201</v>
+      </c>
+      <c r="AC20">
+        <v>34.299739357</v>
+      </c>
+      <c r="AD20">
+        <v>7</v>
+      </c>
+      <c r="AE20">
+        <v>143.35764818999999</v>
+      </c>
+      <c r="AF20">
+        <v>8.9860990442999995</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>50.344429142999999</v>
+      </c>
+      <c r="AI20">
+        <v>43.285838400999999</v>
+      </c>
+      <c r="AJ20">
+        <v>9</v>
+      </c>
+      <c r="AK20">
+        <v>180.93695025</v>
+      </c>
+      <c r="AL20">
+        <v>26.152792108</v>
+      </c>
+      <c r="AM20">
+        <v>7</v>
+      </c>
+      <c r="AN20">
+        <v>103.68878379</v>
+      </c>
+      <c r="AO20">
+        <v>2.8783666377000001</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>5.8196796064000003</v>
+      </c>
+      <c r="AR20">
+        <v>2.0555420238000002</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
+      <c r="AT20">
+        <v>4.5692204510999996</v>
+      </c>
+      <c r="AU20">
+        <v>4.4552562989000002</v>
+      </c>
+      <c r="AV20">
+        <v>2</v>
+      </c>
+      <c r="AW20">
+        <v>18.035458931000001</v>
+      </c>
+      <c r="AX20">
+        <v>2.3048331831</v>
+      </c>
+      <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="AZ20">
+        <v>4.6500436506999998</v>
+      </c>
+      <c r="BA20">
+        <v>1.1172893135999999</v>
+      </c>
+      <c r="BB20">
+        <v>1</v>
+      </c>
+      <c r="BC20">
+        <v>1.4280317687999999</v>
+      </c>
+      <c r="BD20">
+        <v>1.0191138141</v>
+      </c>
+      <c r="BE20">
+        <v>1</v>
+      </c>
+      <c r="BF20">
+        <v>0.15486177870000001</v>
+      </c>
+      <c r="BG20">
+        <v>62.632400570000001</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>554.76058503000002</v>
+      </c>
+      <c r="BJ20">
+        <v>249.45832271</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>1615.6279706</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7695,10 +8076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR19"/>
+  <dimension ref="A1:BR20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11851,6 +12232,220 @@
         <v>2129.645</v>
       </c>
     </row>
+    <row r="20" spans="1:70">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20">
+        <v>1151</v>
+      </c>
+      <c r="C20">
+        <v>1955</v>
+      </c>
+      <c r="D20">
+        <v>295</v>
+      </c>
+      <c r="E20">
+        <v>1099</v>
+      </c>
+      <c r="F20" s="1">
+        <f>D20/B20</f>
+        <v>0.25629887054735012</v>
+      </c>
+      <c r="G20" s="1">
+        <f>E20/C20</f>
+        <v>0.56214833759590788</v>
+      </c>
+      <c r="H20">
+        <v>3.7254236999999999</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>4.3545109999999996</v>
+      </c>
+      <c r="K20">
+        <v>2.4610169000000002</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.7802304000000002</v>
+      </c>
+      <c r="N20">
+        <v>0.70282549999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.5</v>
+      </c>
+      <c r="P20">
+        <v>0.62990520000000005</v>
+      </c>
+      <c r="Q20">
+        <v>2.5525424000000001</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>3.8549091999999998</v>
+      </c>
+      <c r="T20">
+        <v>0.71790359999999998</v>
+      </c>
+      <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
+        <v>0.62766509999999998</v>
+      </c>
+      <c r="W20">
+        <v>50.118644000000003</v>
+      </c>
+      <c r="X20">
+        <v>21</v>
+      </c>
+      <c r="Y20">
+        <v>119.41446000000001</v>
+      </c>
+      <c r="Z20">
+        <v>8.6644068000000001</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <v>20.526387</v>
+      </c>
+      <c r="AC20">
+        <v>58.783051</v>
+      </c>
+      <c r="AD20">
+        <v>29</v>
+      </c>
+      <c r="AE20">
+        <v>124.98802999999999</v>
+      </c>
+      <c r="AF20">
+        <v>16.825965</v>
+      </c>
+      <c r="AG20">
+        <v>8.5</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>27.830316</v>
+      </c>
+      <c r="AI20">
+        <v>64.532202999999996</v>
+      </c>
+      <c r="AJ20">
+        <v>25</v>
+      </c>
+      <c r="AK20">
+        <v>201.08987999999999</v>
+      </c>
+      <c r="AL20">
+        <v>23.077966</v>
+      </c>
+      <c r="AM20">
+        <v>5</v>
+      </c>
+      <c r="AN20">
+        <v>93.177345000000003</v>
+      </c>
+      <c r="AO20">
+        <v>87.610168999999999</v>
+      </c>
+      <c r="AP20">
+        <v>34</v>
+      </c>
+      <c r="AQ20">
+        <v>290.68545999999998</v>
+      </c>
+      <c r="AR20">
+        <v>20.762250000000002</v>
+      </c>
+      <c r="AS20">
+        <v>11</v>
+      </c>
+      <c r="AT20">
+        <v>33.266768999999996</v>
+      </c>
+      <c r="AU20">
+        <v>4.6576271</v>
+      </c>
+      <c r="AV20">
+        <v>2</v>
+      </c>
+      <c r="AW20">
+        <v>7.2215711000000002</v>
+      </c>
+      <c r="AX20">
+        <v>1.4472164999999999</v>
+      </c>
+      <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="AZ20">
+        <v>2.2601618999999999</v>
+      </c>
+      <c r="BA20">
+        <v>10.810169</v>
+      </c>
+      <c r="BB20">
+        <v>4</v>
+      </c>
+      <c r="BC20">
+        <v>33.79054</v>
+      </c>
+      <c r="BD20">
+        <v>2.4198746</v>
+      </c>
+      <c r="BE20">
+        <v>1.5</v>
+      </c>
+      <c r="BF20">
+        <v>2.9162281000000001</v>
+      </c>
+      <c r="BG20">
+        <v>1.4576271000000001</v>
+      </c>
+      <c r="BH20">
+        <v>1</v>
+      </c>
+      <c r="BI20">
+        <v>2.7965116000000001</v>
+      </c>
+      <c r="BJ20">
+        <v>1.0745762999999999</v>
+      </c>
+      <c r="BK20">
+        <v>1</v>
+      </c>
+      <c r="BL20">
+        <v>0.29942869999999999</v>
+      </c>
+      <c r="BM20">
+        <v>244.37252000000001</v>
+      </c>
+      <c r="BN20">
+        <v>1.2480599999999999</v>
+      </c>
+      <c r="BO20">
+        <v>1076.6880000000001</v>
+      </c>
+      <c r="BP20">
+        <v>973.31026999999995</v>
+      </c>
+      <c r="BQ20">
+        <v>16.6389</v>
+      </c>
+      <c r="BR20">
+        <v>3082.7337000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/distributions.xlsx
+++ b/data/distributions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
   <si>
     <t>repository</t>
   </si>
@@ -288,6 +288,9 @@
   <si>
     <t>oh-my-zsh</t>
   </si>
+  <si>
+    <t>rails</t>
+  </si>
 </sst>
 </file>
 
@@ -349,9 +352,95 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1712">
+  <cellStyleXfs count="1798">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2068,7 +2157,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1712">
+  <cellStyles count="1798">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2924,6 +3013,49 @@
     <cellStyle name="Followed Hyperlink" xfId="1707" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1709" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1711" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1713" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1715" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1717" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1719" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1721" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1723" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1725" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1727" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1729" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1731" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1733" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1735" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1737" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1739" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1741" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1743" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1745" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1747" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1749" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1751" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1753" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1755" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1757" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1759" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1761" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1763" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1765" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1767" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1769" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1771" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1773" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1775" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1777" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1779" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1781" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1783" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1785" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1787" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1789" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1791" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1793" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1795" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1797" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -3779,6 +3911,49 @@
     <cellStyle name="Hyperlink" xfId="1706" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1708" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1710" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1712" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1714" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1716" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1718" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1720" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1722" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1724" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1726" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1728" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1730" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1732" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1734" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1736" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1738" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1740" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1742" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1744" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1746" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1748" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1750" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1752" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1754" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1756" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1758" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1760" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1762" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1764" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1766" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1768" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1770" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1772" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1774" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1776" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1778" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1780" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1786" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1788" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1790" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1792" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1794" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1796" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -4109,10 +4284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL20"/>
+  <dimension ref="A1:BL21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8063,6 +8238,200 @@
         <v>1615.6279706</v>
       </c>
     </row>
+    <row r="21" spans="1:64">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>3.4195995353000002</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>39.766614846000003</v>
+      </c>
+      <c r="E21">
+        <v>5.9272876375000001</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>22.196483661999999</v>
+      </c>
+      <c r="H21">
+        <v>2.2199826146000001</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>3.7669904985999998</v>
+      </c>
+      <c r="K21">
+        <v>6.1129638487999998</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>25.338838636999998</v>
+      </c>
+      <c r="N21">
+        <v>2.2321215228</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>3.7978784322000001</v>
+      </c>
+      <c r="Q21">
+        <v>105.50406615</v>
+      </c>
+      <c r="R21">
+        <v>11</v>
+      </c>
+      <c r="S21">
+        <v>1559.6139780000001</v>
+      </c>
+      <c r="T21">
+        <v>78.114262284000006</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <v>1205.4024145000001</v>
+      </c>
+      <c r="W21">
+        <v>183.61832844</v>
+      </c>
+      <c r="X21">
+        <v>17</v>
+      </c>
+      <c r="Y21">
+        <v>2268.1564822999999</v>
+      </c>
+      <c r="Z21">
+        <v>49.964879463999999</v>
+      </c>
+      <c r="AA21">
+        <v>12</v>
+      </c>
+      <c r="AB21">
+        <v>595.55360723000001</v>
+      </c>
+      <c r="AC21">
+        <v>129.18526618000001</v>
+      </c>
+      <c r="AD21">
+        <v>11</v>
+      </c>
+      <c r="AE21">
+        <v>2316.1531509000001</v>
+      </c>
+      <c r="AF21">
+        <v>101.79546231</v>
+      </c>
+      <c r="AG21">
+        <v>4</v>
+      </c>
+      <c r="AH21">
+        <v>1784.0841806000001</v>
+      </c>
+      <c r="AI21">
+        <v>230.98072848999999</v>
+      </c>
+      <c r="AJ21">
+        <v>17</v>
+      </c>
+      <c r="AK21">
+        <v>3803.7870484</v>
+      </c>
+      <c r="AL21">
+        <v>53.418423414999999</v>
+      </c>
+      <c r="AM21">
+        <v>12</v>
+      </c>
+      <c r="AN21">
+        <v>714.58824749999997</v>
+      </c>
+      <c r="AO21">
+        <v>17.450010250999998</v>
+      </c>
+      <c r="AP21">
+        <v>4</v>
+      </c>
+      <c r="AQ21">
+        <v>121.79998372999999</v>
+      </c>
+      <c r="AR21">
+        <v>5.3240331934</v>
+      </c>
+      <c r="AS21">
+        <v>2.5</v>
+      </c>
+      <c r="AT21">
+        <v>24.061102034000001</v>
+      </c>
+      <c r="AU21">
+        <v>23.125538166999998</v>
+      </c>
+      <c r="AV21">
+        <v>4</v>
+      </c>
+      <c r="AW21">
+        <v>337.52272309</v>
+      </c>
+      <c r="AX21">
+        <v>5.5355931371000002</v>
+      </c>
+      <c r="AY21">
+        <v>3</v>
+      </c>
+      <c r="AZ21">
+        <v>23.739293025999999</v>
+      </c>
+      <c r="BA21">
+        <v>1.5396022688</v>
+      </c>
+      <c r="BB21">
+        <v>1</v>
+      </c>
+      <c r="BC21">
+        <v>2.277125244</v>
+      </c>
+      <c r="BD21">
+        <v>1.3205767785</v>
+      </c>
+      <c r="BE21">
+        <v>1</v>
+      </c>
+      <c r="BF21">
+        <v>1.1277470662</v>
+      </c>
+      <c r="BG21">
+        <v>18.684548585000002</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>339.11713177000001</v>
+      </c>
+      <c r="BJ21">
+        <v>117.86574559</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>843.66592717000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8076,10 +8445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR20"/>
+  <dimension ref="A1:BR21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12446,6 +12815,220 @@
         <v>3082.7337000000002</v>
       </c>
     </row>
+    <row r="21" spans="1:70">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>14633</v>
+      </c>
+      <c r="C21">
+        <v>50039</v>
+      </c>
+      <c r="D21">
+        <v>4750</v>
+      </c>
+      <c r="E21">
+        <v>40156</v>
+      </c>
+      <c r="F21" s="1">
+        <f>D21/B21</f>
+        <v>0.32460876101961322</v>
+      </c>
+      <c r="G21" s="1">
+        <f>E21/C21</f>
+        <v>0.80249405463738288</v>
+      </c>
+      <c r="H21">
+        <v>8.4538946999999993</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>69.532871999999998</v>
+      </c>
+      <c r="K21">
+        <v>13.441473999999999</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>37.440842000000004</v>
+      </c>
+      <c r="N21">
+        <v>2.0206328</v>
+      </c>
+      <c r="O21">
+        <v>1.375</v>
+      </c>
+      <c r="P21">
+        <v>3.3321865000000002</v>
+      </c>
+      <c r="Q21">
+        <v>14.013474</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <v>43.049109000000001</v>
+      </c>
+      <c r="T21">
+        <v>2.0580283000000001</v>
+      </c>
+      <c r="U21">
+        <v>1.4285699999999999</v>
+      </c>
+      <c r="V21">
+        <v>3.4405475999999999</v>
+      </c>
+      <c r="W21">
+        <v>279.25495000000001</v>
+      </c>
+      <c r="X21">
+        <v>41</v>
+      </c>
+      <c r="Y21">
+        <v>2710.3481999999999</v>
+      </c>
+      <c r="Z21">
+        <v>207.02105</v>
+      </c>
+      <c r="AA21">
+        <v>18</v>
+      </c>
+      <c r="AB21">
+        <v>2072.9400999999998</v>
+      </c>
+      <c r="AC21">
+        <v>486.27600000000001</v>
+      </c>
+      <c r="AD21">
+        <v>66</v>
+      </c>
+      <c r="AE21">
+        <v>3905.9847</v>
+      </c>
+      <c r="AF21">
+        <v>74.538964000000007</v>
+      </c>
+      <c r="AG21">
+        <v>16.630700000000001</v>
+      </c>
+      <c r="AH21">
+        <v>796.00071000000003</v>
+      </c>
+      <c r="AI21">
+        <v>352.20800000000003</v>
+      </c>
+      <c r="AJ21">
+        <v>45</v>
+      </c>
+      <c r="AK21">
+        <v>4043.6684</v>
+      </c>
+      <c r="AL21">
+        <v>279.97411</v>
+      </c>
+      <c r="AM21">
+        <v>21</v>
+      </c>
+      <c r="AN21">
+        <v>3099.1619000000001</v>
+      </c>
+      <c r="AO21">
+        <v>632.18210999999997</v>
+      </c>
+      <c r="AP21">
+        <v>71</v>
+      </c>
+      <c r="AQ21">
+        <v>6624.4017999999996</v>
+      </c>
+      <c r="AR21">
+        <v>85.178061</v>
+      </c>
+      <c r="AS21">
+        <v>18.5</v>
+      </c>
+      <c r="AT21">
+        <v>1055.2334000000001</v>
+      </c>
+      <c r="AU21">
+        <v>43.099578999999999</v>
+      </c>
+      <c r="AV21">
+        <v>12</v>
+      </c>
+      <c r="AW21">
+        <v>207.86836</v>
+      </c>
+      <c r="AX21">
+        <v>5.7439111</v>
+      </c>
+      <c r="AY21">
+        <v>3</v>
+      </c>
+      <c r="AZ21">
+        <v>16.082571000000002</v>
+      </c>
+      <c r="BA21">
+        <v>60.583789000000003</v>
+      </c>
+      <c r="BB21">
+        <v>14</v>
+      </c>
+      <c r="BC21">
+        <v>589.40444000000002</v>
+      </c>
+      <c r="BD21">
+        <v>6.3956492999999996</v>
+      </c>
+      <c r="BE21">
+        <v>3.6666699999999999</v>
+      </c>
+      <c r="BF21">
+        <v>14.505857000000001</v>
+      </c>
+      <c r="BG21">
+        <v>2.6623158</v>
+      </c>
+      <c r="BH21">
+        <v>2</v>
+      </c>
+      <c r="BI21">
+        <v>3.7562709000000001</v>
+      </c>
+      <c r="BJ21">
+        <v>1.9875788999999999</v>
+      </c>
+      <c r="BK21">
+        <v>1</v>
+      </c>
+      <c r="BL21">
+        <v>1.8054611</v>
+      </c>
+      <c r="BM21">
+        <v>57.560209999999998</v>
+      </c>
+      <c r="BN21">
+        <v>1.7065300000000001</v>
+      </c>
+      <c r="BO21">
+        <v>593.36850000000004</v>
+      </c>
+      <c r="BP21">
+        <v>363.10093999999998</v>
+      </c>
+      <c r="BQ21">
+        <v>7.7136100000000001</v>
+      </c>
+      <c r="BR21">
+        <v>1450.5019</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
